--- a/assets/Cost-IS_WorkedExample_V4.xlsx
+++ b/assets/Cost-IS_WorkedExample_V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n10978011\Documents\r-projects\implementation-costing-instrument\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9514545-A752-44CC-B389-95A2596EAA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B42D3E4-CA7A-4075-A413-68699F3975D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" activeTab="3" xr2:uid="{3ECB8846-40C6-43A7-A1C9-028CED48C876}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" xr2:uid="{3ECB8846-40C6-43A7-A1C9-028CED48C876}"/>
   </bookViews>
   <sheets>
     <sheet name="Template 1" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -298,7 +298,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -784,17 +784,11 @@
     <xf numFmtId="8" fontId="19" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -814,17 +808,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -832,26 +820,17 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -889,21 +868,21 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,6 +890,27 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,60 +920,7 @@
   </cellStyles>
   <dxfs count="63">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -985,43 +932,31 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1045,6 +980,42 @@
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
@@ -1054,97 +1025,28 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1166,14 +1068,19 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1183,18 +1090,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor rgb="FF000000"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1258,6 +1165,97 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1293,6 +1291,50 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1362,18 +1404,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1388,45 +1418,15 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1509,7 +1509,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>of implementation resource across strategies</a:t>
+              <a:t>of implementation strategies by resource</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -3340,7 +3340,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4465,7 +4465,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6531,7 +6531,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F42CD73-0F8A-4433-8074-0762ECDD6DEC}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F42CD73-0F8A-4433-8074-0762ECDD6DEC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J3:M9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -6627,83 +6627,83 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Cost ($)" fld="12" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Cost ($)" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="26">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="18">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="15">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="10">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="9">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="8">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="7">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="2">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7010,7 +7010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CC32AC-0CC8-47B8-A76D-6A24C14AFC5E}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CC32AC-0CC8-47B8-A76D-6A24C14AFC5E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="A3:F16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -7119,67 +7119,67 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Cost ($)" fld="12" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Cost ($)" fld="12" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="3">
+    <format dxfId="38">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="37">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="34">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="28">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="27">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="26">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -7193,7 +7193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1" selected="0">
@@ -7210,14 +7210,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7284,59 +7284,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}" name="Table13" displayName="Table13" ref="A2:O41" totalsRowShown="0" headerRowDxfId="62" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}" name="Table13" displayName="Table13" ref="A2:O41" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A2:O41" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:O663">
     <sortCondition ref="C2:C663"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="17" xr3:uid="{7D558159-F418-41FD-96A7-22F649C76D13}" name="Site" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{7997A1BE-878E-4022-8B5E-67CE5DD75105}" name="Phase" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{6603F4C4-10C2-4BAC-B93E-885FF5555A47}" name="Date" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{5C145399-5110-46E9-959A-B932A82EEA97}" name="Activity" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{9DCBD257-B69E-4BCD-9CB5-64E8242B3C62}" name="Purpose" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{350F3A54-6DDE-4772-968F-017AF14BB7B5}" name="Strategy" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{A40C8A10-6CF9-4BF8-9593-2A30DDF7BD22}" name="Resource- Category" dataDxfId="51">
+    <tableColumn id="17" xr3:uid="{7D558159-F418-41FD-96A7-22F649C76D13}" name="Site" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{7997A1BE-878E-4022-8B5E-67CE5DD75105}" name="Phase" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{6603F4C4-10C2-4BAC-B93E-885FF5555A47}" name="Date" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{5C145399-5110-46E9-959A-B932A82EEA97}" name="Activity" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{9DCBD257-B69E-4BCD-9CB5-64E8242B3C62}" name="Purpose" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{350F3A54-6DDE-4772-968F-017AF14BB7B5}" name="Strategy" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{A40C8A10-6CF9-4BF8-9593-2A30DDF7BD22}" name="Resource- Category" dataDxfId="54">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Resource]],Table6[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A9F470B-6016-4099-93B1-9C6FED588E84}" name="Resource" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{1BF51AA5-3713-452C-ACE9-6FF1294B4CE3}" name="Hourly wage rate" dataDxfId="49" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{6A9F470B-6016-4099-93B1-9C6FED588E84}" name="Resource" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{1BF51AA5-3713-452C-ACE9-6FF1294B4CE3}" name="Hourly wage rate" dataDxfId="52" dataCellStyle="Currency">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Resource]],Table6[#All],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{430F21A7-6152-4162-8D00-2ED1A34DBBA2}" name="Number of personnel involved" dataDxfId="45"/>
-    <tableColumn id="1" xr3:uid="{CCDB03C0-8447-4B78-9809-5DCD7D539135}" name="Time spent per person (hours)" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{5B2020B9-2A74-4E5E-8DB9-CD3773B11110}" name="Total person (hours)" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{430F21A7-6152-4162-8D00-2ED1A34DBBA2}" name="Number of personnel involved" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{CCDB03C0-8447-4B78-9809-5DCD7D539135}" name="Time spent per person (hours)" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{5B2020B9-2A74-4E5E-8DB9-CD3773B11110}" name="Total person (hours)" dataDxfId="49">
       <calculatedColumnFormula>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CC213139-7846-4124-8EF1-4EC266CF0760}" name="Cost ($)" dataDxfId="43" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{CC213139-7846-4124-8EF1-4EC266CF0760}" name="Cost ($)" dataDxfId="48" dataCellStyle="Currency">
       <calculatedColumnFormula>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BB1EFA4F-CB86-4992-A8D2-84B8FF92DB4C}" name="Labour/ Non-Labour" dataDxfId="48" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{62A41631-A5A3-45F6-8B1A-A3A830B39151}" name="Data source" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{BB1EFA4F-CB86-4992-A8D2-84B8FF92DB4C}" name="Labour/ Non-Labour" dataDxfId="47" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{62A41631-A5A3-45F6-8B1A-A3A830B39151}" name="Data source" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}" name="Table6" displayName="Table6" ref="B2:J24" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}" name="Table6" displayName="Table6" ref="B2:J24" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="B2:J24" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J18">
-    <sortCondition sortBy="fontColor" ref="B2:B18" dxfId="60"/>
+    <sortCondition sortBy="fontColor" ref="B2:B18" dxfId="44"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{37CF29D5-CD4D-461A-B6AE-3CC043CCAF7E}" name="Resource- labour" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{37CF29D5-CD4D-461A-B6AE-3CC043CCAF7E}" name="Resource- labour" dataDxfId="43"/>
     <tableColumn id="11" xr3:uid="{8BA04F0B-07B5-48E7-99DD-AC38C5856EEA}" name="Resource- category"/>
     <tableColumn id="2" xr3:uid="{0D119BEB-3828-4AE7-8624-21503E75DC6C}" name="Position"/>
     <tableColumn id="3" xr3:uid="{9EA4E7A8-012D-4B86-A3BF-199B4E339700}" name="Annual salary" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{94DAA80F-F6A5-4B97-B4DA-B976740A325D}" name="Hrly" dataDxfId="58" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{94DAA80F-F6A5-4B97-B4DA-B976740A325D}" name="Hrly" dataDxfId="42" dataCellStyle="Currency">
       <calculatedColumnFormula>(Table6[[#This Row],[Annual salary]]/1725)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D29622E8-E717-418D-A5B4-DEFA7E2E9E1D}" name="Hrly +25% oncost" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{D29622E8-E717-418D-A5B4-DEFA7E2E9E1D}" name="Hrly +25% oncost" dataDxfId="41">
       <calculatedColumnFormula>Table6[[#This Row],[Hrly]]*1.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3AC58C91-4758-499F-AA13-B7DDFB481B97}" name="Classification" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{D6B7A4F5-E959-47C6-9111-7EAE31E26751}" name="Source" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{3AC58C91-4758-499F-AA13-B7DDFB481B97}" name="Classification" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{D6B7A4F5-E959-47C6-9111-7EAE31E26751}" name="Source" dataDxfId="39"/>
     <tableColumn id="7" xr3:uid="{02703E6D-8290-4C7C-8724-DE0CE1FD9041}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7642,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA345CE-FAC0-4BB1-AA08-7E6F1C8713CA}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7666,192 +7666,192 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="59" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="59"/>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="67" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="61" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="99" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="78"/>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="59" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="61" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="80" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="81" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="74" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="59" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="61" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="81" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="74" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="73" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="75"/>
-      <c r="C24" s="67" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="75" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7941,19 +7941,19 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="76">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="77">
         <v>62824</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -7973,10 +7973,10 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="90">
+      <c r="K3" s="83">
         <v>0.5</v>
       </c>
-      <c r="L3" s="90">
+      <c r="L3" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -7984,7 +7984,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -7992,19 +7992,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="76">
         <v>1</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="77">
         <v>62824</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -8024,10 +8024,10 @@
       <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="83">
         <v>0.5</v>
       </c>
-      <c r="L4" s="90">
+      <c r="L4" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8035,7 +8035,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>56.9331983805668</v>
       </c>
-      <c r="N4" s="88" t="s">
+      <c r="N4" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -8043,19 +8043,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="A5" s="76">
         <v>1</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="77">
         <v>62824</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -8075,10 +8075,10 @@
       <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="83">
         <v>0.5</v>
       </c>
-      <c r="L5" s="90">
+      <c r="L5" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8086,7 +8086,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>63.259109311740893</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O5" s="5" t="s">
@@ -8094,19 +8094,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="A6" s="76">
         <v>1</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="77">
         <v>62825</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -8126,10 +8126,10 @@
       <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="83">
         <v>0.5</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8137,7 +8137,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O6" s="5" t="s">
@@ -8145,19 +8145,19 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="A7" s="76">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="77">
         <v>62825</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -8177,10 +8177,10 @@
       <c r="J7" s="5">
         <v>1</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="83">
         <v>0.5</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8188,7 +8188,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>44.281376518218629</v>
       </c>
-      <c r="N7" s="88" t="s">
+      <c r="N7" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -8196,19 +8196,19 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="77">
         <v>62825</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="78" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -8228,10 +8228,10 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="83">
         <v>0.5</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8239,7 +8239,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>50.607287449392715</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -8247,19 +8247,19 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
+      <c r="A9" s="76">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="77">
         <v>62832</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="78" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -8279,10 +8279,10 @@
       <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="83">
         <v>1</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8290,7 +8290,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>75.910931174089058</v>
       </c>
-      <c r="N9" s="88" t="s">
+      <c r="N9" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O9" s="5" t="s">
@@ -8298,19 +8298,19 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="A10" s="76">
         <v>1</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="77">
         <v>62832</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="78" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -8330,10 +8330,10 @@
       <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="83">
         <v>1</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8341,7 +8341,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>88.562753036437257</v>
       </c>
-      <c r="N10" s="88" t="s">
+      <c r="N10" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O10" s="5" t="s">
@@ -8349,19 +8349,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="A11" s="76">
         <v>1</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="77">
         <v>62832</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="78" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -8381,10 +8381,10 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="83">
         <v>1</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8392,7 +8392,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>101.21457489878543</v>
       </c>
-      <c r="N11" s="88" t="s">
+      <c r="N11" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O11" s="5" t="s">
@@ -8400,22 +8400,22 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="76">
         <v>1</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="77">
         <v>62834</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="str">
@@ -8432,10 +8432,10 @@
       <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.16666666666666666</v>
       </c>
@@ -8443,7 +8443,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>12.651821862348175</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O12" s="5" t="s">
@@ -8451,22 +8451,22 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="A13" s="76">
         <v>1</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="77">
         <v>62834</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="str">
@@ -8483,10 +8483,10 @@
       <c r="J13" s="5">
         <v>1</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.16666666666666666</v>
       </c>
@@ -8494,7 +8494,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>14.760458839406208</v>
       </c>
-      <c r="N13" s="88" t="s">
+      <c r="N13" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O13" s="5" t="s">
@@ -8502,22 +8502,22 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="A14" s="76">
         <v>1</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="77">
         <v>62834</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="str">
@@ -8534,10 +8534,10 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.16666666666666666</v>
       </c>
@@ -8545,7 +8545,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>16.869095816464238</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O14" s="5" t="s">
@@ -8553,22 +8553,22 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="A15" s="76">
         <v>1</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="77">
         <v>62835</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="3" t="str">
@@ -8585,10 +8585,10 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="83">
         <v>0.5</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8596,7 +8596,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N15" s="88" t="s">
+      <c r="N15" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O15" s="5" t="s">
@@ -8604,22 +8604,22 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="A16" s="76">
         <v>1</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="77">
         <v>62835</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="3" t="str">
@@ -8636,10 +8636,10 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="83">
         <v>0.5</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8647,7 +8647,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>34.792510121457489</v>
       </c>
-      <c r="N16" s="88" t="s">
+      <c r="N16" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -8655,22 +8655,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="76">
         <v>1</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="84">
+      <c r="C17" s="77">
         <v>62835</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="3" t="str">
@@ -8687,10 +8687,10 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="83">
         <v>0.5</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8698,30 +8698,30 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N17" s="88" t="s">
+      <c r="N17" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="76">
         <v>1</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="84">
+      <c r="C18" s="77">
         <v>62835</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="3" t="str">
@@ -8738,10 +8738,10 @@
       <c r="J18" s="5">
         <v>1</v>
       </c>
-      <c r="K18" s="90">
+      <c r="K18" s="83">
         <v>0.5</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -8749,7 +8749,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>25.303643724696357</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O18" s="5" t="s">
@@ -8757,22 +8757,22 @@
       </c>
     </row>
     <row r="19" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="A19" s="76">
         <v>1</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="77">
         <v>62847</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="87" t="s">
+      <c r="F19" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="3" t="str">
@@ -8789,10 +8789,10 @@
       <c r="J19" s="5">
         <v>1</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="83">
         <v>1</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8800,7 +8800,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>75.910931174089058</v>
       </c>
-      <c r="N19" s="88" t="s">
+      <c r="N19" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O19" s="5" t="s">
@@ -8808,22 +8808,22 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="A20" s="76">
         <v>1</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="77">
         <v>62847</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="3" t="str">
@@ -8840,10 +8840,10 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="83">
         <v>1</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8851,7 +8851,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>88.562753036437257</v>
       </c>
-      <c r="N20" s="88" t="s">
+      <c r="N20" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O20" s="5" t="s">
@@ -8859,22 +8859,22 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="A21" s="76">
         <v>1</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="84">
+      <c r="C21" s="77">
         <v>62847</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F21" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="12" t="str">
@@ -8891,10 +8891,10 @@
       <c r="J21" s="5">
         <v>1</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="83">
         <v>1</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8902,7 +8902,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>101.21457489878543</v>
       </c>
-      <c r="N21" s="88" t="s">
+      <c r="N21" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O21" s="5" t="s">
@@ -8910,22 +8910,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="83">
+      <c r="A22" s="76">
         <v>1</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="77">
         <v>62847</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="12" t="str">
@@ -8942,10 +8942,10 @@
       <c r="J22" s="5">
         <v>1</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="83">
         <v>1</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -8953,7 +8953,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>69.585020242914979</v>
       </c>
-      <c r="N22" s="88" t="s">
+      <c r="N22" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O22" s="5" t="s">
@@ -8961,22 +8961,22 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="A23" s="76">
         <v>1</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="77">
         <v>62847</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="87" t="s">
+      <c r="F23" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="12" t="str">
@@ -8993,10 +8993,10 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="83">
         <v>1</v>
       </c>
-      <c r="L23" s="90">
+      <c r="L23" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9004,7 +9004,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>50.607287449392715</v>
       </c>
-      <c r="N23" s="88" t="s">
+      <c r="N23" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O23" s="5" t="s">
@@ -9012,22 +9012,22 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
+      <c r="A24" s="76">
         <v>1</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="77">
         <v>62848</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="12" t="str">
@@ -9044,10 +9044,10 @@
       <c r="J24" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="90">
+      <c r="K24" s="83">
         <v>1</v>
       </c>
-      <c r="L24" s="90">
+      <c r="L24" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9055,7 +9055,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>75.910931174089058</v>
       </c>
-      <c r="N24" s="88" t="s">
+      <c r="N24" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O24" s="5" t="s">
@@ -9063,22 +9063,22 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="A25" s="76">
         <v>1</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="77">
         <v>62859</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="12" t="str">
@@ -9095,10 +9095,10 @@
       <c r="J25" s="5">
         <v>1</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="83">
         <v>1</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9106,30 +9106,30 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>75.910931174089058</v>
       </c>
-      <c r="N25" s="88" t="s">
+      <c r="N25" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="76">
         <v>1</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="84">
+      <c r="C26" s="77">
         <v>62859</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="str">
@@ -9146,10 +9146,10 @@
       <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="83">
         <v>1</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9157,30 +9157,30 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>69.585020242914979</v>
       </c>
-      <c r="N26" s="88" t="s">
+      <c r="N26" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
+    <row r="27" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="76">
         <v>1</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="77">
         <v>62859</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="87" t="s">
+      <c r="F27" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="3" t="str">
@@ -9197,10 +9197,10 @@
       <c r="J27" s="5">
         <v>1</v>
       </c>
-      <c r="K27" s="90">
+      <c r="K27" s="83">
         <v>1</v>
       </c>
-      <c r="L27" s="90">
+      <c r="L27" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9208,7 +9208,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>50.607287449392715</v>
       </c>
-      <c r="N27" s="88" t="s">
+      <c r="N27" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O27" s="5" t="s">
@@ -9216,22 +9216,22 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83">
+      <c r="A28" s="76">
         <v>1</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="77">
         <v>62859</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="3" t="str">
@@ -9248,10 +9248,10 @@
       <c r="J28" s="5">
         <v>5</v>
       </c>
-      <c r="K28" s="90">
+      <c r="K28" s="83">
         <v>1</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>5</v>
       </c>
@@ -9267,22 +9267,22 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83">
+      <c r="A29" s="76">
         <v>1</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="77">
         <v>62859</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="87" t="s">
+      <c r="F29" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="3" t="str">
@@ -9299,10 +9299,10 @@
       <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K29" s="90">
+      <c r="K29" s="83">
         <v>1</v>
       </c>
-      <c r="L29" s="90">
+      <c r="L29" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>1</v>
       </c>
@@ -9318,22 +9318,22 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="83">
+      <c r="A30" s="76">
         <v>1</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="77">
         <v>62861</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="3" t="str">
@@ -9350,10 +9350,10 @@
       <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="K30" s="90">
+      <c r="K30" s="83">
         <v>0.25</v>
       </c>
-      <c r="L30" s="90">
+      <c r="L30" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.25</v>
       </c>
@@ -9361,7 +9361,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>18.977732793522264</v>
       </c>
-      <c r="N30" s="88" t="s">
+      <c r="N30" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O30" s="5" t="s">
@@ -9369,22 +9369,22 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="83">
+      <c r="A31" s="76">
         <v>1</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="77">
         <v>62862</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="87" t="s">
+      <c r="F31" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="3" t="str">
@@ -9401,10 +9401,10 @@
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="K31" s="90">
+      <c r="K31" s="83">
         <v>0.5</v>
       </c>
-      <c r="L31" s="90">
+      <c r="L31" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9412,7 +9412,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N31" s="88" t="s">
+      <c r="N31" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O31" s="5" t="s">
@@ -9420,22 +9420,22 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
+      <c r="A32" s="76">
         <v>1</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="77">
         <v>62863</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="86" t="s">
+      <c r="E32" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="12" t="str">
@@ -9452,10 +9452,10 @@
       <c r="J32" s="5">
         <v>1</v>
       </c>
-      <c r="K32" s="90">
+      <c r="K32" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L32" s="90">
+      <c r="L32" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.16666666666666666</v>
       </c>
@@ -9463,7 +9463,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>12.651821862348175</v>
       </c>
-      <c r="N32" s="88" t="s">
+      <c r="N32" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O32" s="5" t="s">
@@ -9471,22 +9471,22 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="83">
+      <c r="A33" s="76">
         <v>1</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="77">
         <v>62879</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="86" t="s">
+      <c r="E33" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="12" t="str">
@@ -9503,10 +9503,10 @@
       <c r="J33" s="5">
         <v>1</v>
       </c>
-      <c r="K33" s="90">
+      <c r="K33" s="83">
         <v>0.5</v>
       </c>
-      <c r="L33" s="90">
+      <c r="L33" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9514,7 +9514,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N33" s="88" t="s">
+      <c r="N33" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O33" s="5" t="s">
@@ -9522,22 +9522,22 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="83">
+      <c r="A34" s="76">
         <v>1</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="77">
         <v>62879</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="80" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="12" t="str">
@@ -9554,10 +9554,10 @@
       <c r="J34" s="5">
         <v>1</v>
       </c>
-      <c r="K34" s="90">
+      <c r="K34" s="83">
         <v>0.5</v>
       </c>
-      <c r="L34" s="90">
+      <c r="L34" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9565,7 +9565,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N34" s="88" t="s">
+      <c r="N34" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O34" s="5" t="s">
@@ -9573,22 +9573,22 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83">
+      <c r="A35" s="76">
         <v>1</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="77">
         <v>62880</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="80" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="12" t="str">
@@ -9605,10 +9605,10 @@
       <c r="J35" s="5">
         <v>1</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="83">
         <v>0.16666666666666666</v>
       </c>
-      <c r="L35" s="90">
+      <c r="L35" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.16666666666666666</v>
       </c>
@@ -9616,7 +9616,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>12.651821862348175</v>
       </c>
-      <c r="N35" s="88" t="s">
+      <c r="N35" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O35" s="5" t="s">
@@ -9624,22 +9624,22 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="83">
+      <c r="A36" s="76">
         <v>1</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="77">
         <v>62891</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="86" t="s">
+      <c r="E36" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="12" t="str">
@@ -9656,10 +9656,10 @@
       <c r="J36" s="5">
         <v>1</v>
       </c>
-      <c r="K36" s="90">
+      <c r="K36" s="83">
         <v>0.5</v>
       </c>
-      <c r="L36" s="90">
+      <c r="L36" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9667,7 +9667,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N36" s="88" t="s">
+      <c r="N36" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O36" s="5" t="s">
@@ -9675,22 +9675,22 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="83">
+      <c r="A37" s="76">
         <v>1</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="77">
         <v>62905</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="12" t="str">
@@ -9707,10 +9707,10 @@
       <c r="J37" s="5">
         <v>1</v>
       </c>
-      <c r="K37" s="90">
+      <c r="K37" s="83">
         <v>0.5</v>
       </c>
-      <c r="L37" s="90">
+      <c r="L37" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9718,7 +9718,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>37.955465587044529</v>
       </c>
-      <c r="N37" s="88" t="s">
+      <c r="N37" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O37" s="5" t="s">
@@ -9726,22 +9726,22 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="83">
+      <c r="A38" s="76">
         <v>1</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="84">
+      <c r="C38" s="77">
         <v>62905</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="12" t="str">
@@ -9758,10 +9758,10 @@
       <c r="J38" s="5">
         <v>1</v>
       </c>
-      <c r="K38" s="90">
+      <c r="K38" s="83">
         <v>0.5</v>
       </c>
-      <c r="L38" s="90">
+      <c r="L38" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9769,7 +9769,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>34.792510121457489</v>
       </c>
-      <c r="N38" s="88" t="s">
+      <c r="N38" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O38" s="5" t="s">
@@ -9777,22 +9777,22 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="83">
+      <c r="A39" s="76">
         <v>1</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="77">
         <v>62905</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="12" t="str">
@@ -9809,10 +9809,10 @@
       <c r="J39" s="5">
         <v>1</v>
       </c>
-      <c r="K39" s="90">
+      <c r="K39" s="83">
         <v>0.5</v>
       </c>
-      <c r="L39" s="90">
+      <c r="L39" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9820,30 +9820,30 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>25.303643724696357</v>
       </c>
-      <c r="N39" s="88" t="s">
+      <c r="N39" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="89" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="83">
+    <row r="40" spans="1:15" s="82" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="76">
         <v>1</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="84">
+      <c r="C40" s="77">
         <v>62905</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G40" s="12" t="str">
@@ -9860,10 +9860,10 @@
       <c r="J40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="90">
+      <c r="K40" s="83">
         <v>0.5</v>
       </c>
-      <c r="L40" s="90">
+      <c r="L40" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9871,7 +9871,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>44.281376518218629</v>
       </c>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O40" s="5" t="s">
@@ -9879,22 +9879,22 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
+      <c r="A41" s="76">
         <v>1</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="77">
         <v>62905</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="80" t="s">
         <v>28</v>
       </c>
       <c r="G41" s="12" t="str">
@@ -9911,10 +9911,10 @@
       <c r="J41" s="5">
         <v>1</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41" s="83">
         <v>0.5</v>
       </c>
-      <c r="L41" s="90">
+      <c r="L41" s="83">
         <f>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</f>
         <v>0.5</v>
       </c>
@@ -9922,7 +9922,7 @@
         <f>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</f>
         <v>50.607287449392715</v>
       </c>
-      <c r="N41" s="88" t="s">
+      <c r="N41" s="81" t="s">
         <v>72</v>
       </c>
       <c r="O41" s="5" t="s">
@@ -9934,7 +9934,7 @@
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="86"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="3"/>
@@ -9951,7 +9951,7 @@
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="86"/>
+      <c r="E43" s="79"/>
       <c r="G43" s="7"/>
       <c r="H43" s="48"/>
       <c r="I43" s="38"/>
@@ -9967,7 +9967,7 @@
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="98"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="15"/>
@@ -9984,7 +9984,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="86"/>
+      <c r="E45" s="79"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="7"/>
@@ -10001,7 +10001,7 @@
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="86"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="3"/>
@@ -10018,7 +10018,7 @@
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="86"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="3"/>
@@ -10035,7 +10035,7 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="86"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="3"/>
@@ -10052,7 +10052,7 @@
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="86"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="3"/>
@@ -10069,7 +10069,7 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="86"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="3"/>
@@ -10086,7 +10086,7 @@
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="98"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="7"/>
@@ -10103,7 +10103,7 @@
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="98"/>
+      <c r="E52" s="91"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="15"/>
@@ -10120,7 +10120,7 @@
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="98"/>
+      <c r="E53" s="91"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="15"/>
@@ -10137,7 +10137,7 @@
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="98"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="15"/>
@@ -10154,7 +10154,7 @@
       <c r="B55" s="18"/>
       <c r="C55" s="36"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="85"/>
+      <c r="E55" s="78"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="7"/>
@@ -10171,7 +10171,7 @@
       <c r="B56" s="18"/>
       <c r="C56" s="36"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="85"/>
+      <c r="E56" s="78"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="3"/>
@@ -10188,7 +10188,7 @@
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="98"/>
+      <c r="E57" s="91"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="7"/>
@@ -10205,7 +10205,7 @@
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="98"/>
+      <c r="E58" s="91"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="7"/>
@@ -10222,7 +10222,7 @@
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="86"/>
+      <c r="E59" s="79"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -10239,7 +10239,7 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="86"/>
+      <c r="E60" s="79"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -10256,7 +10256,7 @@
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="86"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -10273,7 +10273,7 @@
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="86"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -10290,7 +10290,7 @@
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="86"/>
+      <c r="E63" s="79"/>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="3"/>
@@ -10307,7 +10307,7 @@
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="86"/>
+      <c r="E64" s="79"/>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="3"/>
@@ -10324,7 +10324,7 @@
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="86"/>
+      <c r="E65" s="79"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="7"/>
@@ -10341,7 +10341,7 @@
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="86"/>
+      <c r="E66" s="79"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="3"/>
@@ -10358,7 +10358,7 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="98"/>
+      <c r="E67" s="91"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="7"/>
@@ -10375,7 +10375,7 @@
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="86"/>
+      <c r="E68" s="79"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="7"/>
@@ -10392,7 +10392,7 @@
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="86"/>
+      <c r="E69" s="79"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="3"/>
@@ -10409,7 +10409,7 @@
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="86"/>
+      <c r="E70" s="79"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="3"/>
@@ -10426,7 +10426,7 @@
       <c r="B71" s="18"/>
       <c r="C71" s="21"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="85"/>
+      <c r="E71" s="78"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="7"/>
@@ -10443,7 +10443,7 @@
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="86"/>
+      <c r="E72" s="79"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="3"/>
@@ -10460,7 +10460,7 @@
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="86"/>
+      <c r="E73" s="79"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="7"/>
@@ -10477,7 +10477,7 @@
       <c r="B74" s="18"/>
       <c r="C74" s="36"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="86"/>
+      <c r="E74" s="79"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="7"/>
@@ -10494,7 +10494,7 @@
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="86"/>
+      <c r="E75" s="79"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="3"/>
@@ -10511,7 +10511,7 @@
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="86"/>
+      <c r="E76" s="79"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -10528,7 +10528,7 @@
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="86"/>
+      <c r="E77" s="79"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -10545,7 +10545,7 @@
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="12"/>
-      <c r="E78" s="86"/>
+      <c r="E78" s="79"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="3"/>
@@ -10562,7 +10562,7 @@
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="86"/>
+      <c r="E79" s="79"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="3"/>
@@ -10579,7 +10579,7 @@
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="12"/>
-      <c r="E80" s="86"/>
+      <c r="E80" s="79"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -10596,7 +10596,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="12"/>
-      <c r="E81" s="86"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -10613,7 +10613,7 @@
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
       <c r="D82" s="12"/>
-      <c r="E82" s="86"/>
+      <c r="E82" s="79"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="3"/>
@@ -10630,7 +10630,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="86"/>
+      <c r="E83" s="79"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -10647,7 +10647,7 @@
       <c r="B84" s="18"/>
       <c r="C84" s="36"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="86"/>
+      <c r="E84" s="79"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
       <c r="H84" s="7"/>
@@ -10664,7 +10664,7 @@
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="12"/>
-      <c r="E85" s="86"/>
+      <c r="E85" s="79"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="3"/>
@@ -10681,7 +10681,7 @@
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="12"/>
-      <c r="E86" s="86"/>
+      <c r="E86" s="79"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="3"/>
@@ -10698,7 +10698,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="86"/>
+      <c r="E87" s="79"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="3"/>
@@ -10715,7 +10715,7 @@
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="86"/>
+      <c r="E88" s="79"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="3"/>
@@ -10732,7 +10732,7 @@
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
       <c r="D89" s="12"/>
-      <c r="E89" s="86"/>
+      <c r="E89" s="79"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="7"/>
@@ -10749,7 +10749,7 @@
       <c r="B90" s="18"/>
       <c r="C90" s="36"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="86"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="7"/>
@@ -10766,7 +10766,7 @@
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="86"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="3"/>
@@ -10783,7 +10783,7 @@
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="86"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="3"/>
@@ -10800,7 +10800,7 @@
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12"/>
-      <c r="E93" s="86"/>
+      <c r="E93" s="79"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="3"/>
@@ -10817,7 +10817,7 @@
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="86"/>
+      <c r="E94" s="79"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -10834,7 +10834,7 @@
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="12"/>
-      <c r="E95" s="86"/>
+      <c r="E95" s="79"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -10851,7 +10851,7 @@
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="86"/>
+      <c r="E96" s="79"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -10868,7 +10868,7 @@
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="86"/>
+      <c r="E97" s="79"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -10885,7 +10885,7 @@
       <c r="B98" s="18"/>
       <c r="C98" s="21"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="86"/>
+      <c r="E98" s="79"/>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="7"/>
@@ -10902,7 +10902,7 @@
       <c r="B99" s="18"/>
       <c r="C99" s="21"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="86"/>
+      <c r="E99" s="79"/>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="7"/>
@@ -10919,7 +10919,7 @@
       <c r="B100" s="18"/>
       <c r="C100" s="21"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="86"/>
+      <c r="E100" s="79"/>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="3"/>
@@ -10936,7 +10936,7 @@
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="86"/>
+      <c r="E101" s="79"/>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="3"/>
@@ -10953,7 +10953,7 @@
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="86"/>
+      <c r="E102" s="79"/>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="3"/>
@@ -10970,7 +10970,7 @@
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="86"/>
+      <c r="E103" s="79"/>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="3"/>
@@ -10987,7 +10987,7 @@
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="86"/>
+      <c r="E104" s="79"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -11004,7 +11004,7 @@
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="86"/>
+      <c r="E105" s="79"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -11021,7 +11021,7 @@
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="86"/>
+      <c r="E106" s="79"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="7"/>
@@ -11038,7 +11038,7 @@
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="86"/>
+      <c r="E107" s="79"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="3"/>
@@ -11055,7 +11055,7 @@
       <c r="B108" s="18"/>
       <c r="C108" s="21"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="86"/>
+      <c r="E108" s="79"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="7"/>
@@ -11072,7 +11072,7 @@
       <c r="B109" s="18"/>
       <c r="C109" s="21"/>
       <c r="D109" s="12"/>
-      <c r="E109" s="86"/>
+      <c r="E109" s="79"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="3"/>
@@ -11089,7 +11089,7 @@
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
       <c r="D110" s="12"/>
-      <c r="E110" s="86"/>
+      <c r="E110" s="79"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -11106,7 +11106,7 @@
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="12"/>
-      <c r="E111" s="86"/>
+      <c r="E111" s="79"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="3"/>
@@ -11123,7 +11123,7 @@
       <c r="B112" s="18"/>
       <c r="C112" s="21"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="86"/>
+      <c r="E112" s="79"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="7"/>
@@ -11140,7 +11140,7 @@
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="86"/>
+      <c r="E113" s="79"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -11157,7 +11157,7 @@
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="86"/>
+      <c r="E114" s="79"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -11174,7 +11174,7 @@
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="86"/>
+      <c r="E115" s="79"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -11191,7 +11191,7 @@
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="86"/>
+      <c r="E116" s="79"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -11208,7 +11208,7 @@
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="86"/>
+      <c r="E117" s="79"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -11225,7 +11225,7 @@
       <c r="B118" s="18"/>
       <c r="C118" s="21"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="86"/>
+      <c r="E118" s="79"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="7"/>
@@ -11242,7 +11242,7 @@
       <c r="B119" s="18"/>
       <c r="C119" s="21"/>
       <c r="D119" s="12"/>
-      <c r="E119" s="86"/>
+      <c r="E119" s="79"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="7"/>
@@ -11259,7 +11259,7 @@
       <c r="B120" s="18"/>
       <c r="C120" s="21"/>
       <c r="D120" s="12"/>
-      <c r="E120" s="86"/>
+      <c r="E120" s="79"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="7"/>
@@ -11276,7 +11276,7 @@
       <c r="B121" s="18"/>
       <c r="C121" s="21"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="86"/>
+      <c r="E121" s="79"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="3"/>
@@ -11293,7 +11293,7 @@
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="86"/>
+      <c r="E122" s="79"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="3"/>
@@ -11310,7 +11310,7 @@
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="86"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="3"/>
@@ -11327,7 +11327,7 @@
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="86"/>
+      <c r="E124" s="79"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="42"/>
@@ -11344,7 +11344,7 @@
       <c r="B125" s="18"/>
       <c r="C125" s="21"/>
       <c r="D125" s="12"/>
-      <c r="E125" s="86"/>
+      <c r="E125" s="79"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="7"/>
@@ -11361,7 +11361,7 @@
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="12"/>
-      <c r="E126" s="86"/>
+      <c r="E126" s="79"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -11378,7 +11378,7 @@
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="86"/>
+      <c r="E127" s="79"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="3"/>
@@ -11395,7 +11395,7 @@
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="86"/>
+      <c r="E128" s="79"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="42"/>
@@ -11412,7 +11412,7 @@
       <c r="B129" s="18"/>
       <c r="C129" s="21"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="86"/>
+      <c r="E129" s="79"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="7"/>
@@ -11429,7 +11429,7 @@
       <c r="B130" s="18"/>
       <c r="C130" s="21"/>
       <c r="D130" s="12"/>
-      <c r="E130" s="86"/>
+      <c r="E130" s="79"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="3"/>
@@ -11446,7 +11446,7 @@
       <c r="B131" s="18"/>
       <c r="C131" s="21"/>
       <c r="D131" s="12"/>
-      <c r="E131" s="86"/>
+      <c r="E131" s="79"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="7"/>
@@ -11463,7 +11463,7 @@
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="12"/>
-      <c r="E132" s="86"/>
+      <c r="E132" s="79"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -11480,7 +11480,7 @@
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="12"/>
-      <c r="E133" s="86"/>
+      <c r="E133" s="79"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -11497,7 +11497,7 @@
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="12"/>
-      <c r="E134" s="86"/>
+      <c r="E134" s="79"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -11514,7 +11514,7 @@
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
       <c r="D135" s="12"/>
-      <c r="E135" s="99"/>
+      <c r="E135" s="92"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="7"/>
@@ -11531,7 +11531,7 @@
       <c r="B136" s="18"/>
       <c r="C136" s="21"/>
       <c r="D136" s="12"/>
-      <c r="E136" s="86"/>
+      <c r="E136" s="79"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="7"/>
@@ -11548,7 +11548,7 @@
       <c r="B137" s="18"/>
       <c r="C137" s="21"/>
       <c r="D137" s="12"/>
-      <c r="E137" s="86"/>
+      <c r="E137" s="79"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="3"/>
@@ -11565,7 +11565,7 @@
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="12"/>
-      <c r="E138" s="86"/>
+      <c r="E138" s="79"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="3"/>
@@ -11582,7 +11582,7 @@
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="12"/>
-      <c r="E139" s="86"/>
+      <c r="E139" s="79"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="3"/>
@@ -11599,7 +11599,7 @@
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="12"/>
-      <c r="E140" s="86"/>
+      <c r="E140" s="79"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="3"/>
@@ -11616,7 +11616,7 @@
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
       <c r="D141" s="12"/>
-      <c r="E141" s="86"/>
+      <c r="E141" s="79"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="3"/>
@@ -11633,7 +11633,7 @@
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
       <c r="D142" s="12"/>
-      <c r="E142" s="86"/>
+      <c r="E142" s="79"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="3"/>
@@ -11650,7 +11650,7 @@
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
       <c r="D143" s="7"/>
-      <c r="E143" s="86"/>
+      <c r="E143" s="79"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -11667,7 +11667,7 @@
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
       <c r="D144" s="7"/>
-      <c r="E144" s="86"/>
+      <c r="E144" s="79"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -11684,7 +11684,7 @@
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
       <c r="D145" s="7"/>
-      <c r="E145" s="86"/>
+      <c r="E145" s="79"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -11701,7 +11701,7 @@
       <c r="B146" s="18"/>
       <c r="C146" s="21"/>
       <c r="D146" s="12"/>
-      <c r="E146" s="98"/>
+      <c r="E146" s="91"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="7"/>
@@ -11718,7 +11718,7 @@
       <c r="B147" s="18"/>
       <c r="C147" s="21"/>
       <c r="D147" s="12"/>
-      <c r="E147" s="98"/>
+      <c r="E147" s="91"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="15"/>
@@ -11735,7 +11735,7 @@
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
       <c r="D148" s="12"/>
-      <c r="E148" s="86"/>
+      <c r="E148" s="79"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="42"/>
@@ -11752,7 +11752,7 @@
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="86"/>
+      <c r="E149" s="79"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="3"/>
@@ -11769,7 +11769,7 @@
       <c r="B150" s="18"/>
       <c r="C150" s="21"/>
       <c r="D150" s="12"/>
-      <c r="E150" s="86"/>
+      <c r="E150" s="79"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="7"/>
@@ -11786,7 +11786,7 @@
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="86"/>
+      <c r="E151" s="79"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="42"/>
@@ -11803,7 +11803,7 @@
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="12"/>
-      <c r="E152" s="86"/>
+      <c r="E152" s="79"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -11820,7 +11820,7 @@
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
       <c r="D153" s="12"/>
-      <c r="E153" s="86"/>
+      <c r="E153" s="79"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="42"/>
@@ -11837,7 +11837,7 @@
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="12"/>
-      <c r="E154" s="86"/>
+      <c r="E154" s="79"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -11854,7 +11854,7 @@
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
       <c r="D155" s="12"/>
-      <c r="E155" s="86"/>
+      <c r="E155" s="79"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="42"/>
@@ -11871,7 +11871,7 @@
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
       <c r="D156" s="12"/>
-      <c r="E156" s="86"/>
+      <c r="E156" s="79"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="3"/>
@@ -11888,7 +11888,7 @@
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
       <c r="D157" s="12"/>
-      <c r="E157" s="86"/>
+      <c r="E157" s="79"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="3"/>
@@ -11905,7 +11905,7 @@
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
       <c r="D158" s="12"/>
-      <c r="E158" s="86"/>
+      <c r="E158" s="79"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="3"/>
@@ -11922,7 +11922,7 @@
       <c r="B159" s="18"/>
       <c r="C159" s="21"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="86"/>
+      <c r="E159" s="79"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="7"/>
@@ -11939,7 +11939,7 @@
       <c r="B160" s="18"/>
       <c r="C160" s="21"/>
       <c r="D160" s="12"/>
-      <c r="E160" s="86"/>
+      <c r="E160" s="79"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="3"/>
@@ -11956,7 +11956,7 @@
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="86"/>
+      <c r="E161" s="79"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="3"/>
@@ -11973,7 +11973,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
       <c r="D162" s="12"/>
-      <c r="E162" s="86"/>
+      <c r="E162" s="79"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="7"/>
@@ -11990,7 +11990,7 @@
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
       <c r="D163" s="12"/>
-      <c r="E163" s="86"/>
+      <c r="E163" s="79"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="3"/>
@@ -12007,7 +12007,7 @@
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
       <c r="D164" s="7"/>
-      <c r="E164" s="86"/>
+      <c r="E164" s="79"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="7"/>
@@ -12024,7 +12024,7 @@
       <c r="B165" s="18"/>
       <c r="C165" s="19"/>
       <c r="D165" s="7"/>
-      <c r="E165" s="86"/>
+      <c r="E165" s="79"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="3"/>
@@ -12041,7 +12041,7 @@
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="99"/>
+      <c r="E166" s="92"/>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
       <c r="H166" s="7"/>
@@ -12058,7 +12058,7 @@
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="99"/>
+      <c r="E167" s="92"/>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="3"/>
@@ -12075,7 +12075,7 @@
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="86"/>
+      <c r="E168" s="79"/>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="3"/>
@@ -12092,7 +12092,7 @@
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
       <c r="D169" s="7"/>
-      <c r="E169" s="86"/>
+      <c r="E169" s="79"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="3"/>
@@ -12109,7 +12109,7 @@
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
       <c r="D170" s="7"/>
-      <c r="E170" s="86"/>
+      <c r="E170" s="79"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -12126,7 +12126,7 @@
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
       <c r="D171" s="7"/>
-      <c r="E171" s="86"/>
+      <c r="E171" s="79"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -12143,7 +12143,7 @@
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
       <c r="D172" s="12"/>
-      <c r="E172" s="86"/>
+      <c r="E172" s="79"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -12160,7 +12160,7 @@
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
       <c r="D173" s="12"/>
-      <c r="E173" s="86"/>
+      <c r="E173" s="79"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -12177,7 +12177,7 @@
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
       <c r="D174" s="7"/>
-      <c r="E174" s="86"/>
+      <c r="E174" s="79"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="3"/>
@@ -12194,7 +12194,7 @@
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
       <c r="D175" s="7"/>
-      <c r="E175" s="86"/>
+      <c r="E175" s="79"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="3"/>
@@ -12211,7 +12211,7 @@
       <c r="B176" s="18"/>
       <c r="C176" s="21"/>
       <c r="D176" s="12"/>
-      <c r="E176" s="86"/>
+      <c r="E176" s="79"/>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="7"/>
@@ -12228,7 +12228,7 @@
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
       <c r="D177" s="12"/>
-      <c r="E177" s="86"/>
+      <c r="E177" s="79"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="42"/>
@@ -12245,7 +12245,7 @@
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
       <c r="D178" s="12"/>
-      <c r="E178" s="86"/>
+      <c r="E178" s="79"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -12262,7 +12262,7 @@
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
       <c r="D179" s="12"/>
-      <c r="E179" s="86"/>
+      <c r="E179" s="79"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -12279,7 +12279,7 @@
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
       <c r="D180" s="12"/>
-      <c r="E180" s="86"/>
+      <c r="E180" s="79"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="42"/>
@@ -12296,7 +12296,7 @@
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
       <c r="D181" s="12"/>
-      <c r="E181" s="86"/>
+      <c r="E181" s="79"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="42"/>
@@ -12313,7 +12313,7 @@
       <c r="B182" s="18"/>
       <c r="C182" s="21"/>
       <c r="D182" s="12"/>
-      <c r="E182" s="86"/>
+      <c r="E182" s="79"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="7"/>
@@ -12330,7 +12330,7 @@
       <c r="B183" s="18"/>
       <c r="C183" s="21"/>
       <c r="D183" s="12"/>
-      <c r="E183" s="86"/>
+      <c r="E183" s="79"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="3"/>
@@ -12347,7 +12347,7 @@
       <c r="B184" s="18"/>
       <c r="C184" s="21"/>
       <c r="D184" s="12"/>
-      <c r="E184" s="86"/>
+      <c r="E184" s="79"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="7"/>
@@ -12364,7 +12364,7 @@
       <c r="B185" s="18"/>
       <c r="C185" s="21"/>
       <c r="D185" s="12"/>
-      <c r="E185" s="86"/>
+      <c r="E185" s="79"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="3"/>
@@ -12381,7 +12381,7 @@
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
       <c r="D186" s="12"/>
-      <c r="E186" s="86"/>
+      <c r="E186" s="79"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -12398,7 +12398,7 @@
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="86"/>
+      <c r="E187" s="79"/>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="3"/>
@@ -12415,7 +12415,7 @@
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="99"/>
+      <c r="E188" s="92"/>
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
       <c r="H188" s="7"/>
@@ -12432,7 +12432,7 @@
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="99"/>
+      <c r="E189" s="92"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
       <c r="H189" s="7"/>
@@ -12449,7 +12449,7 @@
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
       <c r="D190" s="7"/>
-      <c r="E190" s="99"/>
+      <c r="E190" s="92"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
       <c r="H190" s="7"/>
@@ -12466,7 +12466,7 @@
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
       <c r="D191" s="7"/>
-      <c r="E191" s="99"/>
+      <c r="E191" s="92"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
       <c r="H191" s="7"/>
@@ -12483,7 +12483,7 @@
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
       <c r="D192" s="7"/>
-      <c r="E192" s="99"/>
+      <c r="E192" s="92"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
       <c r="H192" s="7"/>
@@ -12500,7 +12500,7 @@
       <c r="B193" s="18"/>
       <c r="C193" s="21"/>
       <c r="D193" s="12"/>
-      <c r="E193" s="86"/>
+      <c r="E193" s="79"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
       <c r="H193" s="7"/>
@@ -12517,7 +12517,7 @@
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="86"/>
+      <c r="E194" s="79"/>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
       <c r="H194" s="3"/>
@@ -12534,7 +12534,7 @@
       <c r="B195" s="18"/>
       <c r="C195" s="21"/>
       <c r="D195" s="12"/>
-      <c r="E195" s="86"/>
+      <c r="E195" s="79"/>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="7"/>
@@ -12551,7 +12551,7 @@
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
       <c r="D196" s="12"/>
-      <c r="E196" s="86"/>
+      <c r="E196" s="79"/>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="3"/>
@@ -12568,7 +12568,7 @@
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
       <c r="D197" s="12"/>
-      <c r="E197" s="86"/>
+      <c r="E197" s="79"/>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
       <c r="H197" s="3"/>
@@ -12585,7 +12585,7 @@
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
       <c r="D198" s="12"/>
-      <c r="E198" s="86"/>
+      <c r="E198" s="79"/>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="3"/>
@@ -12602,7 +12602,7 @@
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
       <c r="D199" s="12"/>
-      <c r="E199" s="86"/>
+      <c r="E199" s="79"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -12619,7 +12619,7 @@
       <c r="B200" s="18"/>
       <c r="C200" s="21"/>
       <c r="D200" s="12"/>
-      <c r="E200" s="86"/>
+      <c r="E200" s="79"/>
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
       <c r="H200" s="7"/>
@@ -12636,7 +12636,7 @@
       <c r="B201" s="18"/>
       <c r="C201" s="21"/>
       <c r="D201" s="12"/>
-      <c r="E201" s="86"/>
+      <c r="E201" s="79"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
       <c r="H201" s="7"/>
@@ -12653,7 +12653,7 @@
       <c r="B202" s="18"/>
       <c r="C202" s="21"/>
       <c r="D202" s="12"/>
-      <c r="E202" s="86"/>
+      <c r="E202" s="79"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="7"/>
@@ -12670,7 +12670,7 @@
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
       <c r="D203" s="13"/>
-      <c r="E203" s="86"/>
+      <c r="E203" s="79"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
       <c r="H203" s="39"/>
@@ -12687,7 +12687,7 @@
       <c r="B204" s="18"/>
       <c r="C204" s="21"/>
       <c r="D204" s="12"/>
-      <c r="E204" s="86"/>
+      <c r="E204" s="79"/>
       <c r="F204" s="13"/>
       <c r="G204" s="13"/>
       <c r="H204" s="7"/>
@@ -12704,7 +12704,7 @@
       <c r="B205" s="18"/>
       <c r="C205" s="21"/>
       <c r="D205" s="12"/>
-      <c r="E205" s="86"/>
+      <c r="E205" s="79"/>
       <c r="F205" s="13"/>
       <c r="G205" s="13"/>
       <c r="H205" s="7"/>
@@ -12721,7 +12721,7 @@
       <c r="B206" s="18"/>
       <c r="C206" s="21"/>
       <c r="D206" s="12"/>
-      <c r="E206" s="86"/>
+      <c r="E206" s="79"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="7"/>
@@ -12738,7 +12738,7 @@
       <c r="B207" s="18"/>
       <c r="C207" s="21"/>
       <c r="D207" s="12"/>
-      <c r="E207" s="86"/>
+      <c r="E207" s="79"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="3"/>
@@ -12755,7 +12755,7 @@
       <c r="B208" s="18"/>
       <c r="C208" s="21"/>
       <c r="D208" s="12"/>
-      <c r="E208" s="86"/>
+      <c r="E208" s="79"/>
       <c r="F208" s="13"/>
       <c r="G208" s="13"/>
       <c r="H208" s="7"/>
@@ -12772,7 +12772,7 @@
       <c r="B209" s="18"/>
       <c r="C209" s="21"/>
       <c r="D209" s="12"/>
-      <c r="E209" s="86"/>
+      <c r="E209" s="79"/>
       <c r="F209" s="13"/>
       <c r="G209" s="13"/>
       <c r="H209" s="3"/>
@@ -12789,7 +12789,7 @@
       <c r="B210" s="18"/>
       <c r="C210" s="21"/>
       <c r="D210" s="12"/>
-      <c r="E210" s="86"/>
+      <c r="E210" s="79"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
       <c r="H210" s="7"/>
@@ -12806,7 +12806,7 @@
       <c r="B211" s="18"/>
       <c r="C211" s="21"/>
       <c r="D211" s="12"/>
-      <c r="E211" s="86"/>
+      <c r="E211" s="79"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="3"/>
@@ -12823,7 +12823,7 @@
       <c r="B212" s="18"/>
       <c r="C212" s="21"/>
       <c r="D212" s="12"/>
-      <c r="E212" s="86"/>
+      <c r="E212" s="79"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
       <c r="H212" s="3"/>
@@ -12840,7 +12840,7 @@
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
       <c r="D213" s="12"/>
-      <c r="E213" s="86"/>
+      <c r="E213" s="79"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
       <c r="H213" s="3"/>
@@ -12857,7 +12857,7 @@
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
       <c r="D214" s="12"/>
-      <c r="E214" s="86"/>
+      <c r="E214" s="79"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="42"/>
@@ -12874,7 +12874,7 @@
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
       <c r="D215" s="12"/>
-      <c r="E215" s="86"/>
+      <c r="E215" s="79"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -12891,7 +12891,7 @@
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="99"/>
+      <c r="E216" s="92"/>
       <c r="F216" s="13"/>
       <c r="G216" s="13"/>
       <c r="H216" s="7"/>
@@ -12908,7 +12908,7 @@
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
       <c r="D217" s="7"/>
-      <c r="E217" s="99"/>
+      <c r="E217" s="92"/>
       <c r="F217" s="13"/>
       <c r="G217" s="13"/>
       <c r="H217" s="7"/>
@@ -12925,7 +12925,7 @@
       <c r="B218" s="18"/>
       <c r="C218" s="21"/>
       <c r="D218" s="12"/>
-      <c r="E218" s="86"/>
+      <c r="E218" s="79"/>
       <c r="F218" s="13"/>
       <c r="G218" s="13"/>
       <c r="H218" s="7"/>
@@ -12942,7 +12942,7 @@
       <c r="B219" s="18"/>
       <c r="C219" s="21"/>
       <c r="D219" s="12"/>
-      <c r="E219" s="86"/>
+      <c r="E219" s="79"/>
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
       <c r="H219" s="7"/>
@@ -12959,7 +12959,7 @@
       <c r="B220" s="18"/>
       <c r="C220" s="21"/>
       <c r="D220" s="12"/>
-      <c r="E220" s="86"/>
+      <c r="E220" s="79"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
       <c r="H220" s="3"/>
@@ -12976,7 +12976,7 @@
       <c r="B221" s="18"/>
       <c r="C221" s="21"/>
       <c r="D221" s="12"/>
-      <c r="E221" s="86"/>
+      <c r="E221" s="79"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
       <c r="H221" s="7"/>
@@ -12993,7 +12993,7 @@
       <c r="B222" s="18"/>
       <c r="C222" s="21"/>
       <c r="D222" s="12"/>
-      <c r="E222" s="86"/>
+      <c r="E222" s="79"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
       <c r="H222" s="3"/>
@@ -13010,7 +13010,7 @@
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
       <c r="D223" s="7"/>
-      <c r="E223" s="99"/>
+      <c r="E223" s="92"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
       <c r="H223" s="7"/>
@@ -13027,7 +13027,7 @@
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
       <c r="D224" s="7"/>
-      <c r="E224" s="99"/>
+      <c r="E224" s="92"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="3"/>
@@ -13044,7 +13044,7 @@
       <c r="B225" s="18"/>
       <c r="C225" s="18"/>
       <c r="D225" s="12"/>
-      <c r="E225" s="86"/>
+      <c r="E225" s="79"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
       <c r="H225" s="3"/>
@@ -13061,7 +13061,7 @@
       <c r="B226" s="18"/>
       <c r="C226" s="18"/>
       <c r="D226" s="12"/>
-      <c r="E226" s="86"/>
+      <c r="E226" s="79"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
       <c r="H226" s="3"/>
@@ -13078,7 +13078,7 @@
       <c r="B227" s="18"/>
       <c r="C227" s="18"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="86"/>
+      <c r="E227" s="79"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -13095,7 +13095,7 @@
       <c r="B228" s="18"/>
       <c r="C228" s="18"/>
       <c r="D228" s="7"/>
-      <c r="E228" s="86"/>
+      <c r="E228" s="79"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -13112,7 +13112,7 @@
       <c r="B229" s="18"/>
       <c r="C229" s="21"/>
       <c r="D229" s="12"/>
-      <c r="E229" s="86"/>
+      <c r="E229" s="79"/>
       <c r="F229" s="13"/>
       <c r="G229" s="13"/>
       <c r="H229" s="7"/>
@@ -13129,7 +13129,7 @@
       <c r="B230" s="18"/>
       <c r="C230" s="21"/>
       <c r="D230" s="12"/>
-      <c r="E230" s="86"/>
+      <c r="E230" s="79"/>
       <c r="F230" s="13"/>
       <c r="G230" s="13"/>
       <c r="H230" s="7"/>
@@ -13146,7 +13146,7 @@
       <c r="B231" s="18"/>
       <c r="C231" s="21"/>
       <c r="D231" s="12"/>
-      <c r="E231" s="86"/>
+      <c r="E231" s="79"/>
       <c r="F231" s="13"/>
       <c r="G231" s="13"/>
       <c r="H231" s="7"/>
@@ -13163,7 +13163,7 @@
       <c r="B232" s="18"/>
       <c r="C232" s="21"/>
       <c r="D232" s="12"/>
-      <c r="E232" s="86"/>
+      <c r="E232" s="79"/>
       <c r="F232" s="13"/>
       <c r="G232" s="13"/>
       <c r="H232" s="7"/>
@@ -13180,7 +13180,7 @@
       <c r="B233" s="18"/>
       <c r="C233" s="21"/>
       <c r="D233" s="12"/>
-      <c r="E233" s="86"/>
+      <c r="E233" s="79"/>
       <c r="F233" s="13"/>
       <c r="G233" s="13"/>
       <c r="H233" s="7"/>
@@ -13197,7 +13197,7 @@
       <c r="B234" s="18"/>
       <c r="C234" s="21"/>
       <c r="D234" s="12"/>
-      <c r="E234" s="86"/>
+      <c r="E234" s="79"/>
       <c r="F234" s="13"/>
       <c r="G234" s="13"/>
       <c r="H234" s="7"/>
@@ -13214,7 +13214,7 @@
       <c r="B235" s="18"/>
       <c r="C235" s="21"/>
       <c r="D235" s="12"/>
-      <c r="E235" s="86"/>
+      <c r="E235" s="79"/>
       <c r="F235" s="13"/>
       <c r="G235" s="13"/>
       <c r="H235" s="7"/>
@@ -13231,7 +13231,7 @@
       <c r="B236" s="18"/>
       <c r="C236" s="21"/>
       <c r="D236" s="12"/>
-      <c r="E236" s="86"/>
+      <c r="E236" s="79"/>
       <c r="F236" s="13"/>
       <c r="G236" s="13"/>
       <c r="H236" s="7"/>
@@ -13248,7 +13248,7 @@
       <c r="B237" s="18"/>
       <c r="C237" s="21"/>
       <c r="D237" s="12"/>
-      <c r="E237" s="86"/>
+      <c r="E237" s="79"/>
       <c r="F237" s="13"/>
       <c r="G237" s="13"/>
       <c r="H237" s="7"/>
@@ -13265,7 +13265,7 @@
       <c r="B238" s="18"/>
       <c r="C238" s="36"/>
       <c r="D238" s="12"/>
-      <c r="E238" s="86"/>
+      <c r="E238" s="79"/>
       <c r="F238" s="13"/>
       <c r="G238" s="13"/>
       <c r="H238" s="7"/>
@@ -13282,7 +13282,7 @@
       <c r="B239" s="18"/>
       <c r="C239" s="36"/>
       <c r="D239" s="12"/>
-      <c r="E239" s="86"/>
+      <c r="E239" s="79"/>
       <c r="F239" s="13"/>
       <c r="G239" s="13"/>
       <c r="H239" s="7"/>
@@ -13299,7 +13299,7 @@
       <c r="B240" s="18"/>
       <c r="C240" s="36"/>
       <c r="D240" s="12"/>
-      <c r="E240" s="86"/>
+      <c r="E240" s="79"/>
       <c r="F240" s="13"/>
       <c r="G240" s="13"/>
       <c r="H240" s="7"/>
@@ -13316,7 +13316,7 @@
       <c r="B241" s="18"/>
       <c r="C241" s="36"/>
       <c r="D241" s="12"/>
-      <c r="E241" s="86"/>
+      <c r="E241" s="79"/>
       <c r="F241" s="13"/>
       <c r="G241" s="13"/>
       <c r="H241" s="22"/>
@@ -13333,7 +13333,7 @@
       <c r="B242" s="18"/>
       <c r="C242" s="36"/>
       <c r="D242" s="12"/>
-      <c r="E242" s="86"/>
+      <c r="E242" s="79"/>
       <c r="F242" s="13"/>
       <c r="G242" s="13"/>
       <c r="H242" s="22"/>
@@ -13350,7 +13350,7 @@
       <c r="B243" s="18"/>
       <c r="C243" s="36"/>
       <c r="D243" s="12"/>
-      <c r="E243" s="86"/>
+      <c r="E243" s="79"/>
       <c r="F243" s="13"/>
       <c r="G243" s="13"/>
       <c r="H243" s="7"/>
@@ -13367,7 +13367,7 @@
       <c r="B244" s="18"/>
       <c r="C244" s="36"/>
       <c r="D244" s="12"/>
-      <c r="E244" s="86"/>
+      <c r="E244" s="79"/>
       <c r="F244" s="13"/>
       <c r="G244" s="13"/>
       <c r="H244" s="7"/>
@@ -13384,7 +13384,7 @@
       <c r="B245" s="18"/>
       <c r="C245" s="36"/>
       <c r="D245" s="12"/>
-      <c r="E245" s="86"/>
+      <c r="E245" s="79"/>
       <c r="F245" s="13"/>
       <c r="G245" s="13"/>
       <c r="H245" s="7"/>
@@ -13401,7 +13401,7 @@
       <c r="B246" s="18"/>
       <c r="C246" s="36"/>
       <c r="D246" s="12"/>
-      <c r="E246" s="86"/>
+      <c r="E246" s="79"/>
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
       <c r="I246" s="32"/>
@@ -13417,7 +13417,7 @@
       <c r="B247" s="18"/>
       <c r="C247" s="36"/>
       <c r="D247" s="12"/>
-      <c r="E247" s="86"/>
+      <c r="E247" s="79"/>
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
       <c r="I247" s="32"/>
@@ -13433,7 +13433,7 @@
       <c r="B248" s="18"/>
       <c r="C248" s="21"/>
       <c r="D248" s="12"/>
-      <c r="E248" s="86"/>
+      <c r="E248" s="79"/>
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
       <c r="I248" s="32"/>
@@ -13449,7 +13449,7 @@
       <c r="B249" s="18"/>
       <c r="C249" s="21"/>
       <c r="D249" s="12"/>
-      <c r="E249" s="86"/>
+      <c r="E249" s="79"/>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
       <c r="I249" s="32"/>
@@ -13465,7 +13465,7 @@
       <c r="B250" s="18"/>
       <c r="C250" s="21"/>
       <c r="D250" s="12"/>
-      <c r="E250" s="86"/>
+      <c r="E250" s="79"/>
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
       <c r="I250" s="32"/>
@@ -13481,7 +13481,7 @@
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
       <c r="D251" s="12"/>
-      <c r="E251" s="86"/>
+      <c r="E251" s="79"/>
       <c r="G251" s="7"/>
       <c r="H251" s="3"/>
       <c r="I251" s="32"/>
@@ -13497,7 +13497,7 @@
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
       <c r="D252" s="12"/>
-      <c r="E252" s="86"/>
+      <c r="E252" s="79"/>
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
       <c r="I252" s="32"/>
@@ -13513,7 +13513,7 @@
       <c r="B253" s="18"/>
       <c r="C253" s="21"/>
       <c r="D253" s="12"/>
-      <c r="E253" s="86"/>
+      <c r="E253" s="79"/>
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
       <c r="I253" s="32"/>
@@ -13529,7 +13529,7 @@
       <c r="B254" s="18"/>
       <c r="C254" s="21"/>
       <c r="D254" s="12"/>
-      <c r="E254" s="86"/>
+      <c r="E254" s="79"/>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
       <c r="H254" s="3"/>
@@ -13546,7 +13546,7 @@
       <c r="B255" s="18"/>
       <c r="C255" s="21"/>
       <c r="D255" s="12"/>
-      <c r="E255" s="86"/>
+      <c r="E255" s="79"/>
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
       <c r="H255" s="7"/>
@@ -13563,7 +13563,7 @@
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
       <c r="D256" s="12"/>
-      <c r="E256" s="86"/>
+      <c r="E256" s="79"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -13580,7 +13580,7 @@
       <c r="B257" s="18"/>
       <c r="C257" s="18"/>
       <c r="D257" s="12"/>
-      <c r="E257" s="86"/>
+      <c r="E257" s="79"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -13597,7 +13597,7 @@
       <c r="B258" s="18"/>
       <c r="C258" s="36"/>
       <c r="D258" s="3"/>
-      <c r="E258" s="98"/>
+      <c r="E258" s="91"/>
       <c r="F258" s="13"/>
       <c r="G258" s="13"/>
       <c r="H258" s="7"/>
@@ -13614,7 +13614,7 @@
       <c r="B259" s="18"/>
       <c r="C259" s="36"/>
       <c r="D259" s="3"/>
-      <c r="E259" s="98"/>
+      <c r="E259" s="91"/>
       <c r="F259" s="13"/>
       <c r="G259" s="13"/>
       <c r="H259" s="22"/>
@@ -13631,7 +13631,7 @@
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
       <c r="D260" s="13"/>
-      <c r="E260" s="98"/>
+      <c r="E260" s="91"/>
       <c r="F260" s="12"/>
       <c r="G260" s="12"/>
       <c r="H260" s="7"/>
@@ -13648,7 +13648,7 @@
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
       <c r="D261" s="13"/>
-      <c r="E261" s="98"/>
+      <c r="E261" s="91"/>
       <c r="F261" s="12"/>
       <c r="G261" s="12"/>
       <c r="H261" s="39"/>
@@ -13665,7 +13665,7 @@
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
       <c r="D262" s="13"/>
-      <c r="E262" s="98"/>
+      <c r="E262" s="91"/>
       <c r="F262" s="12"/>
       <c r="G262" s="12"/>
       <c r="H262" s="39"/>
@@ -13682,7 +13682,7 @@
       <c r="B263" s="18"/>
       <c r="C263" s="19"/>
       <c r="D263" s="13"/>
-      <c r="E263" s="98"/>
+      <c r="E263" s="91"/>
       <c r="F263" s="12"/>
       <c r="G263" s="12"/>
       <c r="H263" s="39"/>
@@ -13699,7 +13699,7 @@
       <c r="B264" s="18"/>
       <c r="C264" s="18"/>
       <c r="D264" s="12"/>
-      <c r="E264" s="86"/>
+      <c r="E264" s="79"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -13716,7 +13716,7 @@
       <c r="B265" s="18"/>
       <c r="C265" s="18"/>
       <c r="D265" s="12"/>
-      <c r="E265" s="86"/>
+      <c r="E265" s="79"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -13733,7 +13733,7 @@
       <c r="B266" s="18"/>
       <c r="C266" s="18"/>
       <c r="D266" s="12"/>
-      <c r="E266" s="86"/>
+      <c r="E266" s="79"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -13750,7 +13750,7 @@
       <c r="B267" s="18"/>
       <c r="C267" s="18"/>
       <c r="D267" s="12"/>
-      <c r="E267" s="86"/>
+      <c r="E267" s="79"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -13767,7 +13767,7 @@
       <c r="B268" s="18"/>
       <c r="C268" s="18"/>
       <c r="D268" s="12"/>
-      <c r="E268" s="86"/>
+      <c r="E268" s="79"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -13784,7 +13784,7 @@
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
       <c r="D269" s="12"/>
-      <c r="E269" s="86"/>
+      <c r="E269" s="79"/>
       <c r="F269" s="13"/>
       <c r="G269" s="13"/>
       <c r="H269" s="7"/>
@@ -13801,7 +13801,7 @@
       <c r="B270" s="18"/>
       <c r="C270" s="19"/>
       <c r="D270" s="12"/>
-      <c r="E270" s="86"/>
+      <c r="E270" s="79"/>
       <c r="F270" s="13"/>
       <c r="G270" s="13"/>
       <c r="H270" s="3"/>
@@ -13818,7 +13818,7 @@
       <c r="B271" s="18"/>
       <c r="C271" s="19"/>
       <c r="D271" s="12"/>
-      <c r="E271" s="86"/>
+      <c r="E271" s="79"/>
       <c r="F271" s="13"/>
       <c r="G271" s="13"/>
       <c r="H271" s="7"/>
@@ -13835,7 +13835,7 @@
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
       <c r="D272" s="12"/>
-      <c r="E272" s="86"/>
+      <c r="E272" s="79"/>
       <c r="F272" s="13"/>
       <c r="G272" s="13"/>
       <c r="H272" s="7"/>
@@ -13852,7 +13852,7 @@
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
       <c r="D273" s="12"/>
-      <c r="E273" s="86"/>
+      <c r="E273" s="79"/>
       <c r="F273" s="13"/>
       <c r="G273" s="13"/>
       <c r="H273" s="7"/>
@@ -13869,7 +13869,7 @@
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
       <c r="D274" s="12"/>
-      <c r="E274" s="86"/>
+      <c r="E274" s="79"/>
       <c r="F274" s="13"/>
       <c r="G274" s="13"/>
       <c r="H274" s="7"/>
@@ -13886,7 +13886,7 @@
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
       <c r="D275" s="12"/>
-      <c r="E275" s="86"/>
+      <c r="E275" s="79"/>
       <c r="F275" s="13"/>
       <c r="G275" s="13"/>
       <c r="H275" s="3"/>
@@ -13903,7 +13903,7 @@
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
       <c r="D276" s="12"/>
-      <c r="E276" s="86"/>
+      <c r="E276" s="79"/>
       <c r="F276" s="13"/>
       <c r="G276" s="13"/>
       <c r="H276" s="7"/>
@@ -13920,7 +13920,7 @@
       <c r="B277" s="18"/>
       <c r="C277" s="19"/>
       <c r="D277" s="12"/>
-      <c r="E277" s="86"/>
+      <c r="E277" s="79"/>
       <c r="F277" s="13"/>
       <c r="G277" s="13"/>
       <c r="H277" s="3"/>
@@ -13937,7 +13937,7 @@
       <c r="B278" s="18"/>
       <c r="C278" s="19"/>
       <c r="D278" s="12"/>
-      <c r="E278" s="86"/>
+      <c r="E278" s="79"/>
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
       <c r="I278" s="34"/>
@@ -13953,7 +13953,7 @@
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
       <c r="D279" s="12"/>
-      <c r="E279" s="86"/>
+      <c r="E279" s="79"/>
       <c r="G279" s="7"/>
       <c r="H279" s="3"/>
       <c r="I279" s="34"/>
@@ -13969,7 +13969,7 @@
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
       <c r="D280" s="12"/>
-      <c r="E280" s="86"/>
+      <c r="E280" s="79"/>
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
       <c r="I280" s="34"/>
@@ -13985,7 +13985,7 @@
       <c r="B281" s="18"/>
       <c r="C281" s="18"/>
       <c r="D281" s="12"/>
-      <c r="E281" s="86"/>
+      <c r="E281" s="79"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -14002,7 +14002,7 @@
       <c r="B282" s="18"/>
       <c r="C282" s="18"/>
       <c r="D282" s="12"/>
-      <c r="E282" s="86"/>
+      <c r="E282" s="79"/>
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
       <c r="H282" s="3"/>
@@ -14019,7 +14019,7 @@
       <c r="B283" s="18"/>
       <c r="C283" s="18"/>
       <c r="D283" s="12"/>
-      <c r="E283" s="86"/>
+      <c r="E283" s="79"/>
       <c r="F283" s="12"/>
       <c r="G283" s="12"/>
       <c r="H283" s="3"/>
@@ -14036,7 +14036,7 @@
       <c r="B284" s="18"/>
       <c r="C284" s="18"/>
       <c r="D284" s="12"/>
-      <c r="E284" s="86"/>
+      <c r="E284" s="79"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
@@ -14053,7 +14053,7 @@
       <c r="B285" s="18"/>
       <c r="C285" s="19"/>
       <c r="D285" s="12"/>
-      <c r="E285" s="86"/>
+      <c r="E285" s="79"/>
       <c r="F285" s="13"/>
       <c r="G285" s="13"/>
       <c r="H285" s="7"/>
@@ -14070,7 +14070,7 @@
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
       <c r="D286" s="12"/>
-      <c r="E286" s="86"/>
+      <c r="E286" s="79"/>
       <c r="F286" s="13"/>
       <c r="G286" s="13"/>
       <c r="H286" s="7"/>
@@ -14087,7 +14087,7 @@
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
       <c r="D287" s="12"/>
-      <c r="E287" s="86"/>
+      <c r="E287" s="79"/>
       <c r="F287" s="13"/>
       <c r="G287" s="13"/>
       <c r="H287" s="3"/>
@@ -14104,7 +14104,7 @@
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
       <c r="D288" s="12"/>
-      <c r="E288" s="86"/>
+      <c r="E288" s="79"/>
       <c r="F288" s="13"/>
       <c r="G288" s="13"/>
       <c r="H288" s="7"/>
@@ -14121,7 +14121,7 @@
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
       <c r="D289" s="12"/>
-      <c r="E289" s="86"/>
+      <c r="E289" s="79"/>
       <c r="F289" s="13"/>
       <c r="G289" s="13"/>
       <c r="H289" s="3"/>
@@ -14138,7 +14138,7 @@
       <c r="B290" s="18"/>
       <c r="C290" s="21"/>
       <c r="D290" s="12"/>
-      <c r="E290" s="86"/>
+      <c r="E290" s="79"/>
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
       <c r="H290" s="7"/>
@@ -14155,7 +14155,7 @@
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="12"/>
-      <c r="E291" s="86"/>
+      <c r="E291" s="79"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
@@ -14172,7 +14172,7 @@
       <c r="B292" s="18"/>
       <c r="C292" s="18"/>
       <c r="D292" s="12"/>
-      <c r="E292" s="86"/>
+      <c r="E292" s="79"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -14189,7 +14189,7 @@
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
       <c r="D293" s="7"/>
-      <c r="E293" s="86"/>
+      <c r="E293" s="79"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -14206,7 +14206,7 @@
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
       <c r="D294" s="7"/>
-      <c r="E294" s="86"/>
+      <c r="E294" s="79"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
@@ -14223,7 +14223,7 @@
       <c r="B295" s="18"/>
       <c r="C295" s="20"/>
       <c r="D295" s="12"/>
-      <c r="E295" s="86"/>
+      <c r="E295" s="79"/>
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
       <c r="H295" s="3"/>
@@ -14240,7 +14240,7 @@
       <c r="B296" s="18"/>
       <c r="C296" s="20"/>
       <c r="D296" s="12"/>
-      <c r="E296" s="86"/>
+      <c r="E296" s="79"/>
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
       <c r="H296" s="7"/>
@@ -14257,7 +14257,7 @@
       <c r="B297" s="18"/>
       <c r="C297" s="20"/>
       <c r="D297" s="12"/>
-      <c r="E297" s="86"/>
+      <c r="E297" s="79"/>
       <c r="F297" s="12"/>
       <c r="G297" s="12"/>
       <c r="H297" s="7"/>
@@ -14274,7 +14274,7 @@
       <c r="B298" s="18"/>
       <c r="C298" s="19"/>
       <c r="D298" s="12"/>
-      <c r="E298" s="86"/>
+      <c r="E298" s="79"/>
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
       <c r="H298" s="7"/>
@@ -14291,7 +14291,7 @@
       <c r="B299" s="18"/>
       <c r="C299" s="21"/>
       <c r="D299" s="12"/>
-      <c r="E299" s="86"/>
+      <c r="E299" s="79"/>
       <c r="F299" s="13"/>
       <c r="G299" s="13"/>
       <c r="H299" s="7"/>
@@ -14308,7 +14308,7 @@
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
       <c r="D300" s="3"/>
-      <c r="E300" s="86"/>
+      <c r="E300" s="79"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
@@ -14327,7 +14327,7 @@
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
       <c r="D301" s="12"/>
-      <c r="E301" s="86"/>
+      <c r="E301" s="79"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
@@ -14344,7 +14344,7 @@
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="12"/>
-      <c r="E302" s="86"/>
+      <c r="E302" s="79"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -14361,7 +14361,7 @@
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
       <c r="D303" s="12"/>
-      <c r="E303" s="86"/>
+      <c r="E303" s="79"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
@@ -14378,7 +14378,7 @@
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="12"/>
-      <c r="E304" s="86"/>
+      <c r="E304" s="79"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -14395,7 +14395,7 @@
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
       <c r="D305" s="12"/>
-      <c r="E305" s="86"/>
+      <c r="E305" s="79"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
       <c r="H305" s="3"/>
@@ -14412,7 +14412,7 @@
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
       <c r="D306" s="15"/>
-      <c r="E306" s="86"/>
+      <c r="E306" s="79"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
       <c r="H306" s="3"/>
@@ -14429,7 +14429,7 @@
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
       <c r="D307" s="15"/>
-      <c r="E307" s="86"/>
+      <c r="E307" s="79"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
       <c r="H307" s="3"/>
@@ -14446,7 +14446,7 @@
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
       <c r="D308" s="12"/>
-      <c r="E308" s="86"/>
+      <c r="E308" s="79"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -14463,7 +14463,7 @@
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
       <c r="D309" s="12"/>
-      <c r="E309" s="86"/>
+      <c r="E309" s="79"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -14480,7 +14480,7 @@
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
       <c r="D310" s="12"/>
-      <c r="E310" s="86"/>
+      <c r="E310" s="79"/>
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
       <c r="H310" s="7"/>
@@ -14497,7 +14497,7 @@
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
       <c r="D311" s="12"/>
-      <c r="E311" s="86"/>
+      <c r="E311" s="79"/>
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
       <c r="H311" s="3"/>
@@ -14514,7 +14514,7 @@
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
       <c r="D312" s="12"/>
-      <c r="E312" s="86"/>
+      <c r="E312" s="79"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -14531,7 +14531,7 @@
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
       <c r="D313" s="12"/>
-      <c r="E313" s="86"/>
+      <c r="E313" s="79"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -14548,7 +14548,7 @@
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
       <c r="D314" s="12"/>
-      <c r="E314" s="86"/>
+      <c r="E314" s="79"/>
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
       <c r="H314" s="7"/>
@@ -14565,7 +14565,7 @@
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
       <c r="D315" s="12"/>
-      <c r="E315" s="86"/>
+      <c r="E315" s="79"/>
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
       <c r="I315" s="34"/>
@@ -14581,7 +14581,7 @@
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
       <c r="D316" s="12"/>
-      <c r="E316" s="86"/>
+      <c r="E316" s="79"/>
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
       <c r="I316" s="34"/>
@@ -14597,7 +14597,7 @@
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
       <c r="D317" s="12"/>
-      <c r="E317" s="86"/>
+      <c r="E317" s="79"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -14614,7 +14614,7 @@
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="12"/>
-      <c r="E318" s="86"/>
+      <c r="E318" s="79"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -14631,7 +14631,7 @@
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
       <c r="D319" s="12"/>
-      <c r="E319" s="86"/>
+      <c r="E319" s="79"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
@@ -14648,7 +14648,7 @@
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
       <c r="D320" s="12"/>
-      <c r="E320" s="86"/>
+      <c r="E320" s="79"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
@@ -14665,7 +14665,7 @@
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
       <c r="D321" s="12"/>
-      <c r="E321" s="86"/>
+      <c r="E321" s="79"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
@@ -14682,7 +14682,7 @@
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
       <c r="D322" s="12"/>
-      <c r="E322" s="86"/>
+      <c r="E322" s="79"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
@@ -14699,7 +14699,7 @@
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
       <c r="D323" s="12"/>
-      <c r="E323" s="86"/>
+      <c r="E323" s="79"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
@@ -14716,7 +14716,7 @@
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
       <c r="D324" s="12"/>
-      <c r="E324" s="86"/>
+      <c r="E324" s="79"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
@@ -14733,7 +14733,7 @@
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
       <c r="D325" s="12"/>
-      <c r="E325" s="86"/>
+      <c r="E325" s="79"/>
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
       <c r="H325" s="7"/>
@@ -14750,7 +14750,7 @@
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
       <c r="D326" s="12"/>
-      <c r="E326" s="86"/>
+      <c r="E326" s="79"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
@@ -14767,7 +14767,7 @@
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
       <c r="D327" s="12"/>
-      <c r="E327" s="86"/>
+      <c r="E327" s="79"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -14784,7 +14784,7 @@
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
       <c r="D328" s="12"/>
-      <c r="E328" s="86"/>
+      <c r="E328" s="79"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
@@ -14801,7 +14801,7 @@
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
       <c r="D329" s="12"/>
-      <c r="E329" s="86"/>
+      <c r="E329" s="79"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -14818,7 +14818,7 @@
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
       <c r="D330" s="12"/>
-      <c r="E330" s="86"/>
+      <c r="E330" s="79"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
@@ -14835,7 +14835,7 @@
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
       <c r="D331" s="12"/>
-      <c r="E331" s="86"/>
+      <c r="E331" s="79"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
@@ -14852,7 +14852,7 @@
       <c r="B332" s="18"/>
       <c r="C332" s="20"/>
       <c r="D332" s="12"/>
-      <c r="E332" s="86"/>
+      <c r="E332" s="79"/>
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
       <c r="H332" s="7"/>
@@ -14869,7 +14869,7 @@
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
       <c r="D333" s="12"/>
-      <c r="E333" s="86"/>
+      <c r="E333" s="79"/>
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
       <c r="I333" s="34"/>
@@ -14885,7 +14885,7 @@
       <c r="B334" s="18"/>
       <c r="C334" s="18"/>
       <c r="D334" s="12"/>
-      <c r="E334" s="86"/>
+      <c r="E334" s="79"/>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
       <c r="I334" s="34"/>
@@ -14901,7 +14901,7 @@
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="86"/>
+      <c r="E335" s="79"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
@@ -14918,7 +14918,7 @@
       <c r="B336" s="18"/>
       <c r="C336" s="18"/>
       <c r="D336" s="12"/>
-      <c r="E336" s="86"/>
+      <c r="E336" s="79"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -14935,7 +14935,7 @@
       <c r="B337" s="18"/>
       <c r="C337" s="18"/>
       <c r="D337" s="12"/>
-      <c r="E337" s="86"/>
+      <c r="E337" s="79"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
@@ -14952,7 +14952,7 @@
       <c r="B338" s="18"/>
       <c r="C338" s="18"/>
       <c r="D338" s="12"/>
-      <c r="E338" s="86"/>
+      <c r="E338" s="79"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -14969,7 +14969,7 @@
       <c r="B339" s="18"/>
       <c r="C339" s="18"/>
       <c r="D339" s="12"/>
-      <c r="E339" s="86"/>
+      <c r="E339" s="79"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
@@ -14986,7 +14986,7 @@
       <c r="B340" s="18"/>
       <c r="C340" s="18"/>
       <c r="D340" s="12"/>
-      <c r="E340" s="86"/>
+      <c r="E340" s="79"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
@@ -15003,7 +15003,7 @@
       <c r="B341" s="18"/>
       <c r="C341" s="18"/>
       <c r="D341" s="12"/>
-      <c r="E341" s="86"/>
+      <c r="E341" s="79"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -15020,7 +15020,7 @@
       <c r="B342" s="18"/>
       <c r="C342" s="18"/>
       <c r="D342" s="12"/>
-      <c r="E342" s="86"/>
+      <c r="E342" s="79"/>
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
       <c r="H342" s="7"/>
@@ -15037,7 +15037,7 @@
       <c r="B343" s="18"/>
       <c r="C343" s="18"/>
       <c r="D343" s="12"/>
-      <c r="E343" s="86"/>
+      <c r="E343" s="79"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
@@ -15054,7 +15054,7 @@
       <c r="B344" s="18"/>
       <c r="C344" s="18"/>
       <c r="D344" s="12"/>
-      <c r="E344" s="86"/>
+      <c r="E344" s="79"/>
       <c r="G344" s="7"/>
       <c r="H344" s="3"/>
       <c r="I344" s="34"/>
@@ -15070,7 +15070,7 @@
       <c r="B345" s="18"/>
       <c r="C345" s="18"/>
       <c r="D345" s="12"/>
-      <c r="E345" s="86"/>
+      <c r="E345" s="79"/>
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
       <c r="I345" s="34"/>
@@ -15086,7 +15086,7 @@
       <c r="B346" s="18"/>
       <c r="C346" s="18"/>
       <c r="D346" s="12"/>
-      <c r="E346" s="86"/>
+      <c r="E346" s="79"/>
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
       <c r="I346" s="34"/>
@@ -15102,7 +15102,7 @@
       <c r="B347" s="18"/>
       <c r="C347" s="18"/>
       <c r="D347" s="3"/>
-      <c r="E347" s="86"/>
+      <c r="E347" s="79"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -15119,7 +15119,7 @@
       <c r="B348" s="18"/>
       <c r="C348" s="18"/>
       <c r="D348" s="12"/>
-      <c r="E348" s="86"/>
+      <c r="E348" s="79"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -15136,7 +15136,7 @@
       <c r="B349" s="18"/>
       <c r="C349" s="18"/>
       <c r="D349" s="12"/>
-      <c r="E349" s="86"/>
+      <c r="E349" s="79"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -15153,7 +15153,7 @@
       <c r="B350" s="18"/>
       <c r="C350" s="18"/>
       <c r="D350" s="12"/>
-      <c r="E350" s="86"/>
+      <c r="E350" s="79"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -15170,7 +15170,7 @@
       <c r="B351" s="18"/>
       <c r="C351" s="18"/>
       <c r="D351" s="12"/>
-      <c r="E351" s="86"/>
+      <c r="E351" s="79"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -15187,7 +15187,7 @@
       <c r="B352" s="18"/>
       <c r="C352" s="18"/>
       <c r="D352" s="12"/>
-      <c r="E352" s="86"/>
+      <c r="E352" s="79"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -15204,7 +15204,7 @@
       <c r="B353" s="18"/>
       <c r="C353" s="18"/>
       <c r="D353" s="12"/>
-      <c r="E353" s="86"/>
+      <c r="E353" s="79"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -15221,7 +15221,7 @@
       <c r="B354" s="18"/>
       <c r="C354" s="18"/>
       <c r="D354" s="12"/>
-      <c r="E354" s="86"/>
+      <c r="E354" s="79"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -15238,7 +15238,7 @@
       <c r="B355" s="18"/>
       <c r="C355" s="18"/>
       <c r="D355" s="12"/>
-      <c r="E355" s="86"/>
+      <c r="E355" s="79"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -15255,7 +15255,7 @@
       <c r="B356" s="18"/>
       <c r="C356" s="18"/>
       <c r="D356" s="12"/>
-      <c r="E356" s="86"/>
+      <c r="E356" s="79"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
@@ -15272,7 +15272,7 @@
       <c r="B357" s="18"/>
       <c r="C357" s="18"/>
       <c r="D357" s="12"/>
-      <c r="E357" s="86"/>
+      <c r="E357" s="79"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -15289,7 +15289,7 @@
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
       <c r="D358" s="12"/>
-      <c r="E358" s="86"/>
+      <c r="E358" s="79"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -15306,7 +15306,7 @@
       <c r="B359" s="18"/>
       <c r="C359" s="18"/>
       <c r="D359" s="12"/>
-      <c r="E359" s="86"/>
+      <c r="E359" s="79"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
@@ -15323,7 +15323,7 @@
       <c r="B360" s="18"/>
       <c r="C360" s="18"/>
       <c r="D360" s="7"/>
-      <c r="E360" s="86"/>
+      <c r="E360" s="79"/>
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
       <c r="H360" s="7"/>
@@ -15340,7 +15340,7 @@
       <c r="B361" s="18"/>
       <c r="C361" s="18"/>
       <c r="D361" s="7"/>
-      <c r="E361" s="86"/>
+      <c r="E361" s="79"/>
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
       <c r="H361" s="3"/>
@@ -15357,7 +15357,7 @@
       <c r="B362" s="18"/>
       <c r="C362" s="18"/>
       <c r="D362" s="12"/>
-      <c r="E362" s="86"/>
+      <c r="E362" s="79"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
@@ -15374,7 +15374,7 @@
       <c r="B363" s="18"/>
       <c r="C363" s="18"/>
       <c r="D363" s="12"/>
-      <c r="E363" s="86"/>
+      <c r="E363" s="79"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -15391,7 +15391,7 @@
       <c r="B364" s="18"/>
       <c r="C364" s="18"/>
       <c r="D364" s="12"/>
-      <c r="E364" s="86"/>
+      <c r="E364" s="79"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -15408,7 +15408,7 @@
       <c r="B365" s="18"/>
       <c r="C365" s="18"/>
       <c r="D365" s="12"/>
-      <c r="E365" s="86"/>
+      <c r="E365" s="79"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
       <c r="H365" s="3"/>
@@ -15425,7 +15425,7 @@
       <c r="B366" s="18"/>
       <c r="C366" s="18"/>
       <c r="D366" s="12"/>
-      <c r="E366" s="86"/>
+      <c r="E366" s="79"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
@@ -15442,7 +15442,7 @@
       <c r="B367" s="18"/>
       <c r="C367" s="18"/>
       <c r="D367" s="12"/>
-      <c r="E367" s="86"/>
+      <c r="E367" s="79"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -15459,7 +15459,7 @@
       <c r="B368" s="18"/>
       <c r="C368" s="18"/>
       <c r="D368" s="12"/>
-      <c r="E368" s="86"/>
+      <c r="E368" s="79"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
@@ -15476,7 +15476,7 @@
       <c r="B369" s="18"/>
       <c r="C369" s="18"/>
       <c r="D369" s="12"/>
-      <c r="E369" s="86"/>
+      <c r="E369" s="79"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
@@ -15493,7 +15493,7 @@
       <c r="B370" s="18"/>
       <c r="C370" s="18"/>
       <c r="D370" s="12"/>
-      <c r="E370" s="86"/>
+      <c r="E370" s="79"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -15510,7 +15510,7 @@
       <c r="B371" s="18"/>
       <c r="C371" s="18"/>
       <c r="D371" s="12"/>
-      <c r="E371" s="86"/>
+      <c r="E371" s="79"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -15527,7 +15527,7 @@
       <c r="B372" s="18"/>
       <c r="C372" s="18"/>
       <c r="D372" s="12"/>
-      <c r="E372" s="86"/>
+      <c r="E372" s="79"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -15544,7 +15544,7 @@
       <c r="B373" s="18"/>
       <c r="C373" s="18"/>
       <c r="D373" s="12"/>
-      <c r="E373" s="86"/>
+      <c r="E373" s="79"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -15561,7 +15561,7 @@
       <c r="B374" s="18"/>
       <c r="C374" s="18"/>
       <c r="D374" s="12"/>
-      <c r="E374" s="86"/>
+      <c r="E374" s="79"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
@@ -15578,7 +15578,7 @@
       <c r="B375" s="18"/>
       <c r="C375" s="18"/>
       <c r="D375" s="12"/>
-      <c r="E375" s="86"/>
+      <c r="E375" s="79"/>
       <c r="F375" s="12"/>
       <c r="G375" s="12"/>
       <c r="H375" s="3"/>
@@ -15595,7 +15595,7 @@
       <c r="B376" s="18"/>
       <c r="C376" s="18"/>
       <c r="D376" s="12"/>
-      <c r="E376" s="86"/>
+      <c r="E376" s="79"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -15612,7 +15612,7 @@
       <c r="B377" s="18"/>
       <c r="C377" s="18"/>
       <c r="D377" s="12"/>
-      <c r="E377" s="86"/>
+      <c r="E377" s="79"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -15629,7 +15629,7 @@
       <c r="B378" s="18"/>
       <c r="C378" s="18"/>
       <c r="D378" s="12"/>
-      <c r="E378" s="86"/>
+      <c r="E378" s="79"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -15646,7 +15646,7 @@
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
       <c r="D379" s="12"/>
-      <c r="E379" s="86"/>
+      <c r="E379" s="79"/>
       <c r="F379" s="12"/>
       <c r="G379" s="12"/>
       <c r="H379" s="3"/>
@@ -15663,7 +15663,7 @@
       <c r="B380" s="18"/>
       <c r="C380" s="18"/>
       <c r="D380" s="12"/>
-      <c r="E380" s="86"/>
+      <c r="E380" s="79"/>
       <c r="F380" s="12"/>
       <c r="G380" s="12"/>
       <c r="H380" s="3"/>
@@ -15680,7 +15680,7 @@
       <c r="B381" s="18"/>
       <c r="C381" s="18"/>
       <c r="D381" s="12"/>
-      <c r="E381" s="86"/>
+      <c r="E381" s="79"/>
       <c r="F381" s="12"/>
       <c r="G381" s="12"/>
       <c r="H381" s="3"/>
@@ -15697,7 +15697,7 @@
       <c r="B382" s="18"/>
       <c r="C382" s="20"/>
       <c r="D382" s="12"/>
-      <c r="E382" s="86"/>
+      <c r="E382" s="79"/>
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
       <c r="I382" s="32"/>
@@ -15713,7 +15713,7 @@
       <c r="B383" s="18"/>
       <c r="C383" s="24"/>
       <c r="D383" s="3"/>
-      <c r="E383" s="86"/>
+      <c r="E383" s="79"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
       <c r="I383" s="32"/>
@@ -15729,7 +15729,7 @@
       <c r="B384" s="18"/>
       <c r="C384" s="24"/>
       <c r="D384" s="3"/>
-      <c r="E384" s="86"/>
+      <c r="E384" s="79"/>
       <c r="G384" s="7"/>
       <c r="H384" s="22"/>
       <c r="I384" s="32"/>
@@ -15745,7 +15745,7 @@
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
       <c r="D385" s="12"/>
-      <c r="E385" s="86"/>
+      <c r="E385" s="79"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
       <c r="H385" s="3"/>
@@ -15762,7 +15762,7 @@
       <c r="B386" s="18"/>
       <c r="C386" s="18"/>
       <c r="D386" s="13"/>
-      <c r="E386" s="86"/>
+      <c r="E386" s="79"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
@@ -15779,7 +15779,7 @@
       <c r="B387" s="18"/>
       <c r="C387" s="18"/>
       <c r="D387" s="13"/>
-      <c r="E387" s="86"/>
+      <c r="E387" s="79"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
@@ -15796,7 +15796,7 @@
       <c r="B388" s="18"/>
       <c r="C388" s="18"/>
       <c r="D388" s="13"/>
-      <c r="E388" s="86"/>
+      <c r="E388" s="79"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -15813,7 +15813,7 @@
       <c r="B389" s="18"/>
       <c r="C389" s="18"/>
       <c r="D389" s="13"/>
-      <c r="E389" s="86"/>
+      <c r="E389" s="79"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -15830,7 +15830,7 @@
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
       <c r="D390" s="15"/>
-      <c r="E390" s="86"/>
+      <c r="E390" s="79"/>
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
       <c r="H390" s="3"/>
@@ -15847,7 +15847,7 @@
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
       <c r="D391" s="15"/>
-      <c r="E391" s="86"/>
+      <c r="E391" s="79"/>
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
       <c r="H391" s="3"/>
@@ -15864,7 +15864,7 @@
       <c r="B392" s="18"/>
       <c r="C392" s="24"/>
       <c r="D392" s="12"/>
-      <c r="E392" s="86"/>
+      <c r="E392" s="79"/>
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
       <c r="I392" s="32"/>
@@ -15880,7 +15880,7 @@
       <c r="B393" s="18"/>
       <c r="C393" s="24"/>
       <c r="D393" s="12"/>
-      <c r="E393" s="86"/>
+      <c r="E393" s="79"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
       <c r="I393" s="32"/>
@@ -15896,7 +15896,7 @@
       <c r="B394" s="18"/>
       <c r="C394" s="18"/>
       <c r="D394" s="13"/>
-      <c r="E394" s="86"/>
+      <c r="E394" s="79"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -15913,7 +15913,7 @@
       <c r="B395" s="18"/>
       <c r="C395" s="18"/>
       <c r="D395" s="13"/>
-      <c r="E395" s="86"/>
+      <c r="E395" s="79"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -15930,7 +15930,7 @@
       <c r="B396" s="18"/>
       <c r="C396" s="18"/>
       <c r="D396" s="13"/>
-      <c r="E396" s="86"/>
+      <c r="E396" s="79"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
@@ -15947,7 +15947,7 @@
       <c r="B397" s="18"/>
       <c r="C397" s="18"/>
       <c r="D397" s="12"/>
-      <c r="E397" s="86"/>
+      <c r="E397" s="79"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -15964,7 +15964,7 @@
       <c r="B398" s="18"/>
       <c r="C398" s="18"/>
       <c r="D398" s="12"/>
-      <c r="E398" s="86"/>
+      <c r="E398" s="79"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
@@ -15981,7 +15981,7 @@
       <c r="B399" s="18"/>
       <c r="C399" s="18"/>
       <c r="D399" s="13"/>
-      <c r="E399" s="86"/>
+      <c r="E399" s="79"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
@@ -15998,7 +15998,7 @@
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
       <c r="D400" s="13"/>
-      <c r="E400" s="86"/>
+      <c r="E400" s="79"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
@@ -16015,7 +16015,7 @@
       <c r="B401" s="18"/>
       <c r="C401" s="18"/>
       <c r="D401" s="12"/>
-      <c r="E401" s="86"/>
+      <c r="E401" s="79"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -16032,7 +16032,7 @@
       <c r="B402" s="18"/>
       <c r="C402" s="18"/>
       <c r="D402" s="12"/>
-      <c r="E402" s="86"/>
+      <c r="E402" s="79"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
@@ -16049,7 +16049,7 @@
       <c r="B403" s="18"/>
       <c r="C403" s="18"/>
       <c r="D403" s="12"/>
-      <c r="E403" s="86"/>
+      <c r="E403" s="79"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -16066,7 +16066,7 @@
       <c r="B404" s="18"/>
       <c r="C404" s="18"/>
       <c r="D404" s="12"/>
-      <c r="E404" s="86"/>
+      <c r="E404" s="79"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -16083,7 +16083,7 @@
       <c r="B405" s="18"/>
       <c r="C405" s="18"/>
       <c r="D405" s="12"/>
-      <c r="E405" s="86"/>
+      <c r="E405" s="79"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -16100,7 +16100,7 @@
       <c r="B406" s="18"/>
       <c r="C406" s="18"/>
       <c r="D406" s="12"/>
-      <c r="E406" s="86"/>
+      <c r="E406" s="79"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
@@ -16117,7 +16117,7 @@
       <c r="B407" s="18"/>
       <c r="C407" s="18"/>
       <c r="D407" s="12"/>
-      <c r="E407" s="86"/>
+      <c r="E407" s="79"/>
       <c r="F407" s="12"/>
       <c r="G407" s="12"/>
       <c r="H407" s="3"/>
@@ -16134,7 +16134,7 @@
       <c r="B408" s="18"/>
       <c r="C408" s="18"/>
       <c r="D408" s="12"/>
-      <c r="E408" s="86"/>
+      <c r="E408" s="79"/>
       <c r="F408" s="12"/>
       <c r="G408" s="12"/>
       <c r="H408" s="3"/>
@@ -16151,7 +16151,7 @@
       <c r="B409" s="18"/>
       <c r="C409" s="18"/>
       <c r="D409" s="12"/>
-      <c r="E409" s="86"/>
+      <c r="E409" s="79"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
@@ -16168,7 +16168,7 @@
       <c r="B410" s="18"/>
       <c r="C410" s="18"/>
       <c r="D410" s="12"/>
-      <c r="E410" s="86"/>
+      <c r="E410" s="79"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
@@ -16185,7 +16185,7 @@
       <c r="B411" s="18"/>
       <c r="C411" s="18"/>
       <c r="D411" s="12"/>
-      <c r="E411" s="86"/>
+      <c r="E411" s="79"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
@@ -16202,7 +16202,7 @@
       <c r="B412" s="18"/>
       <c r="C412" s="24"/>
       <c r="D412" s="12"/>
-      <c r="E412" s="86"/>
+      <c r="E412" s="79"/>
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
       <c r="H412" s="22"/>
@@ -16219,7 +16219,7 @@
       <c r="B413" s="18"/>
       <c r="C413" s="24"/>
       <c r="D413" s="12"/>
-      <c r="E413" s="86"/>
+      <c r="E413" s="79"/>
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
       <c r="H413" s="22"/>
@@ -16236,7 +16236,7 @@
       <c r="B414" s="18"/>
       <c r="C414" s="24"/>
       <c r="D414" s="12"/>
-      <c r="E414" s="86"/>
+      <c r="E414" s="79"/>
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
       <c r="H414" s="7"/>
@@ -16253,7 +16253,7 @@
       <c r="B415" s="18"/>
       <c r="C415" s="19"/>
       <c r="D415" s="13"/>
-      <c r="E415" s="86"/>
+      <c r="E415" s="79"/>
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
       <c r="H415" s="15"/>
@@ -16270,7 +16270,7 @@
       <c r="B416" s="18"/>
       <c r="C416" s="18"/>
       <c r="D416" s="12"/>
-      <c r="E416" s="86"/>
+      <c r="E416" s="79"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
@@ -16287,7 +16287,7 @@
       <c r="B417" s="18"/>
       <c r="C417" s="18"/>
       <c r="D417" s="12"/>
-      <c r="E417" s="86"/>
+      <c r="E417" s="79"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
@@ -16304,7 +16304,7 @@
       <c r="B418" s="18"/>
       <c r="C418" s="18"/>
       <c r="D418" s="12"/>
-      <c r="E418" s="86"/>
+      <c r="E418" s="79"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
@@ -16321,7 +16321,7 @@
       <c r="B419" s="18"/>
       <c r="C419" s="18"/>
       <c r="D419" s="12"/>
-      <c r="E419" s="86"/>
+      <c r="E419" s="79"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
@@ -16338,7 +16338,7 @@
       <c r="B420" s="18"/>
       <c r="C420" s="18"/>
       <c r="D420" s="12"/>
-      <c r="E420" s="86"/>
+      <c r="E420" s="79"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
@@ -16355,7 +16355,7 @@
       <c r="B421" s="18"/>
       <c r="C421" s="18"/>
       <c r="D421" s="12"/>
-      <c r="E421" s="86"/>
+      <c r="E421" s="79"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
@@ -16372,7 +16372,7 @@
       <c r="B422" s="18"/>
       <c r="C422" s="18"/>
       <c r="D422" s="12"/>
-      <c r="E422" s="86"/>
+      <c r="E422" s="79"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
@@ -16389,7 +16389,7 @@
       <c r="B423" s="18"/>
       <c r="C423" s="18"/>
       <c r="D423" s="12"/>
-      <c r="E423" s="86"/>
+      <c r="E423" s="79"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -16406,7 +16406,7 @@
       <c r="B424" s="18"/>
       <c r="C424" s="18"/>
       <c r="D424" s="12"/>
-      <c r="E424" s="86"/>
+      <c r="E424" s="79"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -16423,7 +16423,7 @@
       <c r="B425" s="18"/>
       <c r="C425" s="18"/>
       <c r="D425" s="12"/>
-      <c r="E425" s="86"/>
+      <c r="E425" s="79"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -16440,7 +16440,7 @@
       <c r="B426" s="18"/>
       <c r="C426" s="36"/>
       <c r="D426" s="12"/>
-      <c r="E426" s="86"/>
+      <c r="E426" s="79"/>
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
       <c r="H426" s="7"/>
@@ -16457,7 +16457,7 @@
       <c r="B427" s="18"/>
       <c r="C427" s="36"/>
       <c r="D427" s="12"/>
-      <c r="E427" s="86"/>
+      <c r="E427" s="79"/>
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
       <c r="H427" s="7"/>
@@ -16474,7 +16474,7 @@
       <c r="B428" s="18"/>
       <c r="C428" s="18"/>
       <c r="D428" s="12"/>
-      <c r="E428" s="86"/>
+      <c r="E428" s="79"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -16491,7 +16491,7 @@
       <c r="B429" s="18"/>
       <c r="C429" s="18"/>
       <c r="D429" s="12"/>
-      <c r="E429" s="86"/>
+      <c r="E429" s="79"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -16508,7 +16508,7 @@
       <c r="B430" s="18"/>
       <c r="C430" s="18"/>
       <c r="D430" s="12"/>
-      <c r="E430" s="86"/>
+      <c r="E430" s="79"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -16525,7 +16525,7 @@
       <c r="B431" s="18"/>
       <c r="C431" s="18"/>
       <c r="D431" s="12"/>
-      <c r="E431" s="86"/>
+      <c r="E431" s="79"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -16542,7 +16542,7 @@
       <c r="B432" s="18"/>
       <c r="C432" s="18"/>
       <c r="D432" s="12"/>
-      <c r="E432" s="86"/>
+      <c r="E432" s="79"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
@@ -16559,7 +16559,7 @@
       <c r="B433" s="18"/>
       <c r="C433" s="18"/>
       <c r="D433" s="12"/>
-      <c r="E433" s="86"/>
+      <c r="E433" s="79"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
@@ -16576,7 +16576,7 @@
       <c r="B434" s="18"/>
       <c r="C434" s="18"/>
       <c r="D434" s="12"/>
-      <c r="E434" s="86"/>
+      <c r="E434" s="79"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
@@ -16593,7 +16593,7 @@
       <c r="B435" s="18"/>
       <c r="C435" s="18"/>
       <c r="D435" s="12"/>
-      <c r="E435" s="86"/>
+      <c r="E435" s="79"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
@@ -16610,7 +16610,7 @@
       <c r="B436" s="18"/>
       <c r="C436" s="19"/>
       <c r="D436" s="12"/>
-      <c r="E436" s="86"/>
+      <c r="E436" s="79"/>
       <c r="F436" s="13"/>
       <c r="G436" s="13"/>
       <c r="H436" s="3"/>
@@ -16627,7 +16627,7 @@
       <c r="B437" s="18"/>
       <c r="C437" s="19"/>
       <c r="D437" s="12"/>
-      <c r="E437" s="86"/>
+      <c r="E437" s="79"/>
       <c r="F437" s="13"/>
       <c r="G437" s="13"/>
       <c r="H437" s="7"/>
@@ -16644,7 +16644,7 @@
       <c r="B438" s="18"/>
       <c r="C438" s="19"/>
       <c r="D438" s="12"/>
-      <c r="E438" s="86"/>
+      <c r="E438" s="79"/>
       <c r="F438" s="13"/>
       <c r="G438" s="13"/>
       <c r="H438" s="7"/>
@@ -16661,7 +16661,7 @@
       <c r="B439" s="18"/>
       <c r="C439" s="18"/>
       <c r="D439" s="12"/>
-      <c r="E439" s="86"/>
+      <c r="E439" s="79"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
@@ -16678,7 +16678,7 @@
       <c r="B440" s="18"/>
       <c r="C440" s="18"/>
       <c r="D440" s="12"/>
-      <c r="E440" s="86"/>
+      <c r="E440" s="79"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
@@ -16695,7 +16695,7 @@
       <c r="B441" s="18"/>
       <c r="C441" s="18"/>
       <c r="D441" s="12"/>
-      <c r="E441" s="86"/>
+      <c r="E441" s="79"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
@@ -16712,7 +16712,7 @@
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
       <c r="D442" s="12"/>
-      <c r="E442" s="86"/>
+      <c r="E442" s="79"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
@@ -16729,7 +16729,7 @@
       <c r="B443" s="18"/>
       <c r="C443" s="18"/>
       <c r="D443" s="12"/>
-      <c r="E443" s="86"/>
+      <c r="E443" s="79"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
@@ -16746,7 +16746,7 @@
       <c r="B444" s="18"/>
       <c r="C444" s="18"/>
       <c r="D444" s="12"/>
-      <c r="E444" s="86"/>
+      <c r="E444" s="79"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
@@ -16763,7 +16763,7 @@
       <c r="B445" s="18"/>
       <c r="C445" s="18"/>
       <c r="D445" s="12"/>
-      <c r="E445" s="86"/>
+      <c r="E445" s="79"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
@@ -16780,7 +16780,7 @@
       <c r="B446" s="18"/>
       <c r="C446" s="18"/>
       <c r="D446" s="12"/>
-      <c r="E446" s="86"/>
+      <c r="E446" s="79"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
@@ -16797,7 +16797,7 @@
       <c r="B447" s="18"/>
       <c r="C447" s="18"/>
       <c r="D447" s="12"/>
-      <c r="E447" s="86"/>
+      <c r="E447" s="79"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
@@ -16814,7 +16814,7 @@
       <c r="B448" s="18"/>
       <c r="C448" s="18"/>
       <c r="D448" s="12"/>
-      <c r="E448" s="86"/>
+      <c r="E448" s="79"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
@@ -16831,7 +16831,7 @@
       <c r="B449" s="18"/>
       <c r="C449" s="18"/>
       <c r="D449" s="12"/>
-      <c r="E449" s="86"/>
+      <c r="E449" s="79"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
@@ -16848,7 +16848,7 @@
       <c r="B450" s="18"/>
       <c r="C450" s="18"/>
       <c r="D450" s="12"/>
-      <c r="E450" s="86"/>
+      <c r="E450" s="79"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
@@ -16865,7 +16865,7 @@
       <c r="B451" s="18"/>
       <c r="C451" s="18"/>
       <c r="D451" s="12"/>
-      <c r="E451" s="86"/>
+      <c r="E451" s="79"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
@@ -16882,7 +16882,7 @@
       <c r="B452" s="18"/>
       <c r="C452" s="18"/>
       <c r="D452" s="7"/>
-      <c r="E452" s="86"/>
+      <c r="E452" s="79"/>
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
       <c r="H452" s="3"/>
@@ -16899,7 +16899,7 @@
       <c r="B453" s="18"/>
       <c r="C453" s="18"/>
       <c r="D453" s="7"/>
-      <c r="E453" s="86"/>
+      <c r="E453" s="79"/>
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
       <c r="H453" s="3"/>
@@ -16916,7 +16916,7 @@
       <c r="B454" s="18"/>
       <c r="C454" s="18"/>
       <c r="D454" s="7"/>
-      <c r="E454" s="86"/>
+      <c r="E454" s="79"/>
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
       <c r="H454" s="3"/>
@@ -16933,7 +16933,7 @@
       <c r="B455" s="18"/>
       <c r="C455" s="18"/>
       <c r="D455" s="7"/>
-      <c r="E455" s="86"/>
+      <c r="E455" s="79"/>
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
       <c r="H455" s="3"/>
@@ -16950,7 +16950,7 @@
       <c r="B456" s="18"/>
       <c r="C456" s="18"/>
       <c r="D456" s="12"/>
-      <c r="E456" s="86"/>
+      <c r="E456" s="79"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
@@ -16967,7 +16967,7 @@
       <c r="B457" s="18"/>
       <c r="C457" s="18"/>
       <c r="D457" s="12"/>
-      <c r="E457" s="86"/>
+      <c r="E457" s="79"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
@@ -16984,7 +16984,7 @@
       <c r="B458" s="18"/>
       <c r="C458" s="18"/>
       <c r="D458" s="12"/>
-      <c r="E458" s="86"/>
+      <c r="E458" s="79"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
@@ -17001,7 +17001,7 @@
       <c r="B459" s="18"/>
       <c r="C459" s="18"/>
       <c r="D459" s="12"/>
-      <c r="E459" s="86"/>
+      <c r="E459" s="79"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
@@ -17018,7 +17018,7 @@
       <c r="B460" s="18"/>
       <c r="C460" s="18"/>
       <c r="D460" s="12"/>
-      <c r="E460" s="86"/>
+      <c r="E460" s="79"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
@@ -17035,7 +17035,7 @@
       <c r="B461" s="18"/>
       <c r="C461" s="18"/>
       <c r="D461" s="12"/>
-      <c r="E461" s="86"/>
+      <c r="E461" s="79"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
@@ -17052,7 +17052,7 @@
       <c r="B462" s="18"/>
       <c r="C462" s="18"/>
       <c r="D462" s="12"/>
-      <c r="E462" s="86"/>
+      <c r="E462" s="79"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
@@ -17069,7 +17069,7 @@
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
       <c r="D463" s="13"/>
-      <c r="E463" s="86"/>
+      <c r="E463" s="79"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
@@ -17086,7 +17086,7 @@
       <c r="B464" s="18"/>
       <c r="C464" s="18"/>
       <c r="D464" s="12"/>
-      <c r="E464" s="86"/>
+      <c r="E464" s="79"/>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
@@ -17103,7 +17103,7 @@
       <c r="B465" s="18"/>
       <c r="C465" s="18"/>
       <c r="D465" s="12"/>
-      <c r="E465" s="86"/>
+      <c r="E465" s="79"/>
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
       <c r="H465" s="7"/>
@@ -17120,7 +17120,7 @@
       <c r="B466" s="18"/>
       <c r="C466" s="18"/>
       <c r="D466" s="12"/>
-      <c r="E466" s="86"/>
+      <c r="E466" s="79"/>
       <c r="F466" s="12"/>
       <c r="G466" s="12"/>
       <c r="H466" s="3"/>
@@ -17137,7 +17137,7 @@
       <c r="B467" s="18"/>
       <c r="C467" s="18"/>
       <c r="D467" s="12"/>
-      <c r="E467" s="86"/>
+      <c r="E467" s="79"/>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
@@ -17154,7 +17154,7 @@
       <c r="B468" s="18"/>
       <c r="C468" s="18"/>
       <c r="D468" s="12"/>
-      <c r="E468" s="86"/>
+      <c r="E468" s="79"/>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
@@ -17171,7 +17171,7 @@
       <c r="B469" s="18"/>
       <c r="C469" s="18"/>
       <c r="D469" s="12"/>
-      <c r="E469" s="86"/>
+      <c r="E469" s="79"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
@@ -17188,7 +17188,7 @@
       <c r="B470" s="18"/>
       <c r="C470" s="18"/>
       <c r="D470" s="12"/>
-      <c r="E470" s="86"/>
+      <c r="E470" s="79"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
@@ -17205,7 +17205,7 @@
       <c r="B471" s="18"/>
       <c r="C471" s="18"/>
       <c r="D471" s="12"/>
-      <c r="E471" s="86"/>
+      <c r="E471" s="79"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
@@ -17222,7 +17222,7 @@
       <c r="B472" s="18"/>
       <c r="C472" s="19"/>
       <c r="D472" s="12"/>
-      <c r="E472" s="86"/>
+      <c r="E472" s="79"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
       <c r="H472" s="7"/>
@@ -17239,7 +17239,7 @@
       <c r="B473" s="18"/>
       <c r="C473" s="19"/>
       <c r="D473" s="12"/>
-      <c r="E473" s="86"/>
+      <c r="E473" s="79"/>
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
       <c r="H473" s="7"/>
@@ -17256,7 +17256,7 @@
       <c r="B474" s="18"/>
       <c r="C474" s="18"/>
       <c r="D474" s="3"/>
-      <c r="E474" s="86"/>
+      <c r="E474" s="79"/>
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
       <c r="H474" s="3"/>
@@ -17273,7 +17273,7 @@
       <c r="B475" s="18"/>
       <c r="C475" s="18"/>
       <c r="D475" s="3"/>
-      <c r="E475" s="86"/>
+      <c r="E475" s="79"/>
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
       <c r="H475" s="3"/>
@@ -17290,7 +17290,7 @@
       <c r="B476" s="18"/>
       <c r="C476" s="18"/>
       <c r="D476" s="12"/>
-      <c r="E476" s="86"/>
+      <c r="E476" s="79"/>
       <c r="F476" s="12"/>
       <c r="G476" s="12"/>
       <c r="H476" s="3"/>
@@ -17307,7 +17307,7 @@
       <c r="B477" s="18"/>
       <c r="C477" s="18"/>
       <c r="D477" s="12"/>
-      <c r="E477" s="86"/>
+      <c r="E477" s="79"/>
       <c r="F477" s="12"/>
       <c r="G477" s="12"/>
       <c r="H477" s="7"/>
@@ -17324,7 +17324,7 @@
       <c r="B478" s="18"/>
       <c r="C478" s="18"/>
       <c r="D478" s="12"/>
-      <c r="E478" s="86"/>
+      <c r="E478" s="79"/>
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
       <c r="H478" s="3"/>
@@ -17341,7 +17341,7 @@
       <c r="B479" s="18"/>
       <c r="C479" s="18"/>
       <c r="D479" s="12"/>
-      <c r="E479" s="86"/>
+      <c r="E479" s="79"/>
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
       <c r="H479" s="3"/>
@@ -17358,7 +17358,7 @@
       <c r="B480" s="18"/>
       <c r="C480" s="18"/>
       <c r="D480" s="12"/>
-      <c r="E480" s="86"/>
+      <c r="E480" s="79"/>
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
       <c r="H480" s="3"/>
@@ -17375,7 +17375,7 @@
       <c r="B481" s="18"/>
       <c r="C481" s="18"/>
       <c r="D481" s="15"/>
-      <c r="E481" s="86"/>
+      <c r="E481" s="79"/>
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
       <c r="H481" s="3"/>
@@ -17392,7 +17392,7 @@
       <c r="B482" s="18"/>
       <c r="C482" s="18"/>
       <c r="D482" s="15"/>
-      <c r="E482" s="86"/>
+      <c r="E482" s="79"/>
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
       <c r="H482" s="3"/>
@@ -17409,7 +17409,7 @@
       <c r="B483" s="18"/>
       <c r="C483" s="18"/>
       <c r="D483" s="15"/>
-      <c r="E483" s="86"/>
+      <c r="E483" s="79"/>
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
       <c r="H483" s="3"/>
@@ -17426,7 +17426,7 @@
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
       <c r="D484" s="15"/>
-      <c r="E484" s="86"/>
+      <c r="E484" s="79"/>
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
       <c r="H484" s="3"/>
@@ -17443,7 +17443,7 @@
       <c r="B485" s="18"/>
       <c r="C485" s="18"/>
       <c r="D485" s="15"/>
-      <c r="E485" s="86"/>
+      <c r="E485" s="79"/>
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
       <c r="H485" s="3"/>
@@ -17460,7 +17460,7 @@
       <c r="B486" s="18"/>
       <c r="C486" s="18"/>
       <c r="D486" s="15"/>
-      <c r="E486" s="86"/>
+      <c r="E486" s="79"/>
       <c r="F486" s="12"/>
       <c r="G486" s="12"/>
       <c r="H486" s="3"/>
@@ -17477,7 +17477,7 @@
       <c r="B487" s="18"/>
       <c r="C487" s="18"/>
       <c r="D487" s="15"/>
-      <c r="E487" s="86"/>
+      <c r="E487" s="79"/>
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
       <c r="H487" s="3"/>
@@ -17494,7 +17494,7 @@
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
       <c r="D488" s="12"/>
-      <c r="E488" s="86"/>
+      <c r="E488" s="79"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
@@ -17511,7 +17511,7 @@
       <c r="B489" s="18"/>
       <c r="C489" s="19"/>
       <c r="D489" s="12"/>
-      <c r="E489" s="99"/>
+      <c r="E489" s="92"/>
       <c r="F489" s="13"/>
       <c r="G489" s="13"/>
       <c r="H489" s="7"/>
@@ -17528,7 +17528,7 @@
       <c r="B490" s="18"/>
       <c r="C490" s="18"/>
       <c r="D490" s="3"/>
-      <c r="E490" s="86"/>
+      <c r="E490" s="79"/>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
@@ -17545,7 +17545,7 @@
       <c r="B491" s="18"/>
       <c r="C491" s="18"/>
       <c r="D491" s="15"/>
-      <c r="E491" s="86"/>
+      <c r="E491" s="79"/>
       <c r="F491" s="12"/>
       <c r="G491" s="12"/>
       <c r="H491" s="3"/>
@@ -17562,7 +17562,7 @@
       <c r="B492" s="18"/>
       <c r="C492" s="18"/>
       <c r="D492" s="15"/>
-      <c r="E492" s="86"/>
+      <c r="E492" s="79"/>
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
       <c r="H492" s="3"/>
@@ -17579,7 +17579,7 @@
       <c r="B493" s="18"/>
       <c r="C493" s="18"/>
       <c r="D493" s="15"/>
-      <c r="E493" s="86"/>
+      <c r="E493" s="79"/>
       <c r="F493" s="12"/>
       <c r="G493" s="12"/>
       <c r="H493" s="3"/>
@@ -17596,7 +17596,7 @@
       <c r="B494" s="18"/>
       <c r="C494" s="18"/>
       <c r="D494" s="12"/>
-      <c r="E494" s="86"/>
+      <c r="E494" s="79"/>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
@@ -17613,7 +17613,7 @@
       <c r="B495" s="18"/>
       <c r="C495" s="18"/>
       <c r="D495" s="12"/>
-      <c r="E495" s="86"/>
+      <c r="E495" s="79"/>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
@@ -17630,7 +17630,7 @@
       <c r="B496" s="18"/>
       <c r="C496" s="18"/>
       <c r="D496" s="15"/>
-      <c r="E496" s="86"/>
+      <c r="E496" s="79"/>
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
       <c r="H496" s="3"/>
@@ -17647,7 +17647,7 @@
       <c r="B497" s="18"/>
       <c r="C497" s="18"/>
       <c r="D497" s="15"/>
-      <c r="E497" s="86"/>
+      <c r="E497" s="79"/>
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
       <c r="H497" s="3"/>
@@ -17664,7 +17664,7 @@
       <c r="B498" s="18"/>
       <c r="C498" s="18"/>
       <c r="D498" s="15"/>
-      <c r="E498" s="86"/>
+      <c r="E498" s="79"/>
       <c r="F498" s="12"/>
       <c r="G498" s="12"/>
       <c r="H498" s="3"/>
@@ -17681,7 +17681,7 @@
       <c r="B499" s="18"/>
       <c r="C499" s="18"/>
       <c r="D499" s="15"/>
-      <c r="E499" s="86"/>
+      <c r="E499" s="79"/>
       <c r="F499" s="12"/>
       <c r="G499" s="12"/>
       <c r="H499" s="3"/>
@@ -17698,7 +17698,7 @@
       <c r="B500" s="18"/>
       <c r="C500" s="18"/>
       <c r="D500" s="15"/>
-      <c r="E500" s="86"/>
+      <c r="E500" s="79"/>
       <c r="F500" s="12"/>
       <c r="G500" s="12"/>
       <c r="H500" s="3"/>
@@ -17715,7 +17715,7 @@
       <c r="B501" s="18"/>
       <c r="C501" s="18"/>
       <c r="D501" s="15"/>
-      <c r="E501" s="86"/>
+      <c r="E501" s="79"/>
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
       <c r="H501" s="3"/>
@@ -17732,7 +17732,7 @@
       <c r="B502" s="18"/>
       <c r="C502" s="18"/>
       <c r="D502" s="15"/>
-      <c r="E502" s="86"/>
+      <c r="E502" s="79"/>
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
       <c r="H502" s="3"/>
@@ -17749,7 +17749,7 @@
       <c r="B503" s="18"/>
       <c r="C503" s="18"/>
       <c r="D503" s="15"/>
-      <c r="E503" s="86"/>
+      <c r="E503" s="79"/>
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
       <c r="H503" s="3"/>
@@ -17766,7 +17766,7 @@
       <c r="B504" s="18"/>
       <c r="C504" s="18"/>
       <c r="D504" s="15"/>
-      <c r="E504" s="86"/>
+      <c r="E504" s="79"/>
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
       <c r="H504" s="3"/>
@@ -17783,7 +17783,7 @@
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
       <c r="D505" s="15"/>
-      <c r="E505" s="86"/>
+      <c r="E505" s="79"/>
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
       <c r="H505" s="3"/>
@@ -17800,7 +17800,7 @@
       <c r="B506" s="18"/>
       <c r="C506" s="18"/>
       <c r="D506" s="15"/>
-      <c r="E506" s="86"/>
+      <c r="E506" s="79"/>
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
       <c r="H506" s="3"/>
@@ -17817,7 +17817,7 @@
       <c r="B507" s="18"/>
       <c r="C507" s="18"/>
       <c r="D507" s="15"/>
-      <c r="E507" s="86"/>
+      <c r="E507" s="79"/>
       <c r="F507" s="12"/>
       <c r="G507" s="12"/>
       <c r="H507" s="3"/>
@@ -17834,7 +17834,7 @@
       <c r="B508" s="18"/>
       <c r="C508" s="18"/>
       <c r="D508" s="15"/>
-      <c r="E508" s="86"/>
+      <c r="E508" s="79"/>
       <c r="F508" s="12"/>
       <c r="G508" s="12"/>
       <c r="H508" s="3"/>
@@ -17851,7 +17851,7 @@
       <c r="B509" s="18"/>
       <c r="C509" s="18"/>
       <c r="D509" s="15"/>
-      <c r="E509" s="86"/>
+      <c r="E509" s="79"/>
       <c r="F509" s="12"/>
       <c r="G509" s="12"/>
       <c r="H509" s="3"/>
@@ -17868,7 +17868,7 @@
       <c r="B510" s="18"/>
       <c r="C510" s="18"/>
       <c r="D510" s="15"/>
-      <c r="E510" s="86"/>
+      <c r="E510" s="79"/>
       <c r="F510" s="12"/>
       <c r="G510" s="12"/>
       <c r="H510" s="3"/>
@@ -17885,7 +17885,7 @@
       <c r="B511" s="18"/>
       <c r="C511" s="18"/>
       <c r="D511" s="12"/>
-      <c r="E511" s="86"/>
+      <c r="E511" s="79"/>
       <c r="F511" s="12"/>
       <c r="G511" s="12"/>
       <c r="H511" s="3"/>
@@ -17902,7 +17902,7 @@
       <c r="B512" s="18"/>
       <c r="C512" s="18"/>
       <c r="D512" s="12"/>
-      <c r="E512" s="86"/>
+      <c r="E512" s="79"/>
       <c r="F512" s="12"/>
       <c r="G512" s="12"/>
       <c r="H512" s="3"/>
@@ -17919,7 +17919,7 @@
       <c r="B513" s="18"/>
       <c r="C513" s="18"/>
       <c r="D513" s="12"/>
-      <c r="E513" s="86"/>
+      <c r="E513" s="79"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
@@ -17936,7 +17936,7 @@
       <c r="B514" s="18"/>
       <c r="C514" s="18"/>
       <c r="D514" s="12"/>
-      <c r="E514" s="86"/>
+      <c r="E514" s="79"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
@@ -17953,7 +17953,7 @@
       <c r="B515" s="18"/>
       <c r="C515" s="18"/>
       <c r="D515" s="12"/>
-      <c r="E515" s="86"/>
+      <c r="E515" s="79"/>
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
       <c r="H515" s="3"/>
@@ -17970,7 +17970,7 @@
       <c r="B516" s="18"/>
       <c r="C516" s="18"/>
       <c r="D516" s="12"/>
-      <c r="E516" s="86"/>
+      <c r="E516" s="79"/>
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
       <c r="H516" s="3"/>
@@ -17987,7 +17987,7 @@
       <c r="B517" s="18"/>
       <c r="C517" s="18"/>
       <c r="D517" s="12"/>
-      <c r="E517" s="86"/>
+      <c r="E517" s="79"/>
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
       <c r="H517" s="3"/>
@@ -18004,7 +18004,7 @@
       <c r="B518" s="18"/>
       <c r="C518" s="18"/>
       <c r="D518" s="12"/>
-      <c r="E518" s="86"/>
+      <c r="E518" s="79"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
@@ -18021,7 +18021,7 @@
       <c r="B519" s="18"/>
       <c r="C519" s="18"/>
       <c r="D519" s="12"/>
-      <c r="E519" s="86"/>
+      <c r="E519" s="79"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
@@ -18038,7 +18038,7 @@
       <c r="B520" s="18"/>
       <c r="C520" s="18"/>
       <c r="D520" s="12"/>
-      <c r="E520" s="86"/>
+      <c r="E520" s="79"/>
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
       <c r="H520" s="3"/>
@@ -18055,7 +18055,7 @@
       <c r="B521" s="18"/>
       <c r="C521" s="18"/>
       <c r="D521" s="12"/>
-      <c r="E521" s="86"/>
+      <c r="E521" s="79"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
@@ -18072,7 +18072,7 @@
       <c r="B522" s="18"/>
       <c r="C522" s="18"/>
       <c r="D522" s="12"/>
-      <c r="E522" s="86"/>
+      <c r="E522" s="79"/>
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
       <c r="H522" s="3"/>
@@ -18089,7 +18089,7 @@
       <c r="B523" s="18"/>
       <c r="C523" s="18"/>
       <c r="D523" s="12"/>
-      <c r="E523" s="86"/>
+      <c r="E523" s="79"/>
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
       <c r="H523" s="3"/>
@@ -18106,7 +18106,7 @@
       <c r="B524" s="18"/>
       <c r="C524" s="18"/>
       <c r="D524" s="12"/>
-      <c r="E524" s="86"/>
+      <c r="E524" s="79"/>
       <c r="F524" s="12"/>
       <c r="G524" s="12"/>
       <c r="H524" s="3"/>
@@ -18123,7 +18123,7 @@
       <c r="B525" s="18"/>
       <c r="C525" s="18"/>
       <c r="D525" s="12"/>
-      <c r="E525" s="86"/>
+      <c r="E525" s="79"/>
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
       <c r="H525" s="3"/>
@@ -18140,7 +18140,7 @@
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
       <c r="D526" s="12"/>
-      <c r="E526" s="86"/>
+      <c r="E526" s="79"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
@@ -18157,7 +18157,7 @@
       <c r="B527" s="18"/>
       <c r="C527" s="18"/>
       <c r="D527" s="12"/>
-      <c r="E527" s="86"/>
+      <c r="E527" s="79"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
@@ -18174,7 +18174,7 @@
       <c r="B528" s="18"/>
       <c r="C528" s="18"/>
       <c r="D528" s="12"/>
-      <c r="E528" s="86"/>
+      <c r="E528" s="79"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
@@ -18191,7 +18191,7 @@
       <c r="B529" s="18"/>
       <c r="C529" s="18"/>
       <c r="D529" s="12"/>
-      <c r="E529" s="86"/>
+      <c r="E529" s="79"/>
       <c r="F529" s="12"/>
       <c r="G529" s="12"/>
       <c r="H529" s="7"/>
@@ -18208,7 +18208,7 @@
       <c r="B530" s="18"/>
       <c r="C530" s="18"/>
       <c r="D530" s="12"/>
-      <c r="E530" s="86"/>
+      <c r="E530" s="79"/>
       <c r="F530" s="12"/>
       <c r="G530" s="12"/>
       <c r="H530" s="3"/>
@@ -18225,7 +18225,7 @@
       <c r="B531" s="18"/>
       <c r="C531" s="18"/>
       <c r="D531" s="12"/>
-      <c r="E531" s="86"/>
+      <c r="E531" s="79"/>
       <c r="F531" s="12"/>
       <c r="G531" s="12"/>
       <c r="H531" s="3"/>
@@ -18242,7 +18242,7 @@
       <c r="B532" s="18"/>
       <c r="C532" s="18"/>
       <c r="D532" s="12"/>
-      <c r="E532" s="86"/>
+      <c r="E532" s="79"/>
       <c r="F532" s="12"/>
       <c r="G532" s="12"/>
       <c r="H532" s="3"/>
@@ -18259,7 +18259,7 @@
       <c r="B533" s="18"/>
       <c r="C533" s="18"/>
       <c r="D533" s="12"/>
-      <c r="E533" s="86"/>
+      <c r="E533" s="79"/>
       <c r="F533" s="12"/>
       <c r="G533" s="12"/>
       <c r="H533" s="3"/>
@@ -18276,7 +18276,7 @@
       <c r="B534" s="18"/>
       <c r="C534" s="18"/>
       <c r="D534" s="12"/>
-      <c r="E534" s="86"/>
+      <c r="E534" s="79"/>
       <c r="F534" s="12"/>
       <c r="G534" s="12"/>
       <c r="H534" s="3"/>
@@ -18293,7 +18293,7 @@
       <c r="B535" s="18"/>
       <c r="C535" s="18"/>
       <c r="D535" s="12"/>
-      <c r="E535" s="86"/>
+      <c r="E535" s="79"/>
       <c r="F535" s="12"/>
       <c r="G535" s="12"/>
       <c r="H535" s="3"/>
@@ -18310,7 +18310,7 @@
       <c r="B536" s="18"/>
       <c r="C536" s="18"/>
       <c r="D536" s="12"/>
-      <c r="E536" s="86"/>
+      <c r="E536" s="79"/>
       <c r="F536" s="12"/>
       <c r="G536" s="12"/>
       <c r="H536" s="3"/>
@@ -18327,7 +18327,7 @@
       <c r="B537" s="18"/>
       <c r="C537" s="18"/>
       <c r="D537" s="12"/>
-      <c r="E537" s="86"/>
+      <c r="E537" s="79"/>
       <c r="F537" s="12"/>
       <c r="G537" s="12"/>
       <c r="H537" s="3"/>
@@ -18344,7 +18344,7 @@
       <c r="B538" s="18"/>
       <c r="C538" s="18"/>
       <c r="D538" s="12"/>
-      <c r="E538" s="86"/>
+      <c r="E538" s="79"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
@@ -18361,7 +18361,7 @@
       <c r="B539" s="18"/>
       <c r="C539" s="18"/>
       <c r="D539" s="12"/>
-      <c r="E539" s="86"/>
+      <c r="E539" s="79"/>
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
       <c r="H539" s="3"/>
@@ -18378,7 +18378,7 @@
       <c r="B540" s="18"/>
       <c r="C540" s="18"/>
       <c r="D540" s="12"/>
-      <c r="E540" s="86"/>
+      <c r="E540" s="79"/>
       <c r="F540" s="12"/>
       <c r="G540" s="12"/>
       <c r="H540" s="3"/>
@@ -18395,7 +18395,7 @@
       <c r="B541" s="18"/>
       <c r="C541" s="18"/>
       <c r="D541" s="3"/>
-      <c r="E541" s="86"/>
+      <c r="E541" s="79"/>
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
       <c r="H541" s="3"/>
@@ -18412,7 +18412,7 @@
       <c r="B542" s="18"/>
       <c r="C542" s="18"/>
       <c r="D542" s="3"/>
-      <c r="E542" s="86"/>
+      <c r="E542" s="79"/>
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
       <c r="H542" s="3"/>
@@ -18429,7 +18429,7 @@
       <c r="B543" s="18"/>
       <c r="C543" s="18"/>
       <c r="D543" s="12"/>
-      <c r="E543" s="86"/>
+      <c r="E543" s="79"/>
       <c r="G543" s="7"/>
       <c r="H543" s="48"/>
       <c r="I543" s="38"/>
@@ -18445,7 +18445,7 @@
       <c r="B544" s="18"/>
       <c r="C544" s="20"/>
       <c r="D544" s="12"/>
-      <c r="E544" s="86"/>
+      <c r="E544" s="79"/>
       <c r="G544" s="7"/>
       <c r="H544" s="7"/>
       <c r="I544" s="32"/>
@@ -18461,7 +18461,7 @@
       <c r="B545" s="18"/>
       <c r="C545" s="18"/>
       <c r="D545" s="3"/>
-      <c r="E545" s="86"/>
+      <c r="E545" s="79"/>
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
       <c r="H545" s="3"/>
@@ -18478,7 +18478,7 @@
       <c r="B546" s="18"/>
       <c r="C546" s="18"/>
       <c r="D546" s="3"/>
-      <c r="E546" s="86"/>
+      <c r="E546" s="79"/>
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
       <c r="H546" s="3"/>
@@ -18495,7 +18495,7 @@
       <c r="B547" s="18"/>
       <c r="C547" s="18"/>
       <c r="D547" s="3"/>
-      <c r="E547" s="86"/>
+      <c r="E547" s="79"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
       <c r="H547" s="3"/>
@@ -18512,7 +18512,7 @@
       <c r="B548" s="18"/>
       <c r="C548" s="18"/>
       <c r="D548" s="12"/>
-      <c r="E548" s="86"/>
+      <c r="E548" s="79"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="42"/>
@@ -18529,7 +18529,7 @@
       <c r="B549" s="18"/>
       <c r="C549" s="18"/>
       <c r="D549" s="12"/>
-      <c r="E549" s="86"/>
+      <c r="E549" s="79"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
@@ -18546,7 +18546,7 @@
       <c r="B550" s="18"/>
       <c r="C550" s="18"/>
       <c r="D550" s="12"/>
-      <c r="E550" s="86"/>
+      <c r="E550" s="79"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
@@ -18563,7 +18563,7 @@
       <c r="B551" s="18"/>
       <c r="C551" s="20"/>
       <c r="D551" s="3"/>
-      <c r="E551" s="86"/>
+      <c r="E551" s="79"/>
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
       <c r="H551" s="7"/>
@@ -18580,7 +18580,7 @@
       <c r="B552" s="18"/>
       <c r="C552" s="20"/>
       <c r="D552" s="3"/>
-      <c r="E552" s="86"/>
+      <c r="E552" s="79"/>
       <c r="F552" s="12"/>
       <c r="G552" s="12"/>
       <c r="H552" s="3"/>
@@ -18597,7 +18597,7 @@
       <c r="B553" s="18"/>
       <c r="C553" s="18"/>
       <c r="D553" s="3"/>
-      <c r="E553" s="86"/>
+      <c r="E553" s="79"/>
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
       <c r="H553" s="3"/>
@@ -18614,7 +18614,7 @@
       <c r="B554" s="18"/>
       <c r="C554" s="18"/>
       <c r="D554" s="3"/>
-      <c r="E554" s="86"/>
+      <c r="E554" s="79"/>
       <c r="F554" s="12"/>
       <c r="G554" s="12"/>
       <c r="H554" s="3"/>
@@ -18631,7 +18631,7 @@
       <c r="B555" s="18"/>
       <c r="C555" s="18"/>
       <c r="D555" s="7"/>
-      <c r="E555" s="86"/>
+      <c r="E555" s="79"/>
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
       <c r="H555" s="3"/>
@@ -18648,7 +18648,7 @@
       <c r="B556" s="18"/>
       <c r="C556" s="18"/>
       <c r="D556" s="7"/>
-      <c r="E556" s="86"/>
+      <c r="E556" s="79"/>
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
       <c r="H556" s="3"/>
@@ -18665,7 +18665,7 @@
       <c r="B557" s="18"/>
       <c r="C557" s="18"/>
       <c r="D557" s="12"/>
-      <c r="E557" s="86"/>
+      <c r="E557" s="79"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
@@ -18682,7 +18682,7 @@
       <c r="B558" s="18"/>
       <c r="C558" s="18"/>
       <c r="D558" s="12"/>
-      <c r="E558" s="86"/>
+      <c r="E558" s="79"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
@@ -18699,7 +18699,7 @@
       <c r="B559" s="18"/>
       <c r="C559" s="18"/>
       <c r="D559" s="3"/>
-      <c r="E559" s="86"/>
+      <c r="E559" s="79"/>
       <c r="F559" s="12"/>
       <c r="G559" s="12"/>
       <c r="H559" s="3"/>
@@ -18716,7 +18716,7 @@
       <c r="B560" s="18"/>
       <c r="C560" s="18"/>
       <c r="D560" s="3"/>
-      <c r="E560" s="86"/>
+      <c r="E560" s="79"/>
       <c r="F560" s="12"/>
       <c r="G560" s="12"/>
       <c r="H560" s="3"/>
@@ -18733,7 +18733,7 @@
       <c r="B561" s="18"/>
       <c r="C561" s="18"/>
       <c r="D561" s="3"/>
-      <c r="E561" s="86"/>
+      <c r="E561" s="79"/>
       <c r="F561" s="12"/>
       <c r="G561" s="12"/>
       <c r="H561" s="3"/>
@@ -18750,7 +18750,7 @@
       <c r="B562" s="18"/>
       <c r="C562" s="18"/>
       <c r="D562" s="3"/>
-      <c r="E562" s="86"/>
+      <c r="E562" s="79"/>
       <c r="F562" s="12"/>
       <c r="G562" s="12"/>
       <c r="H562" s="3"/>
@@ -18767,7 +18767,7 @@
       <c r="B563" s="18"/>
       <c r="C563" s="18"/>
       <c r="D563" s="12"/>
-      <c r="E563" s="86"/>
+      <c r="E563" s="79"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
@@ -18784,7 +18784,7 @@
       <c r="B564" s="18"/>
       <c r="C564" s="18"/>
       <c r="D564" s="12"/>
-      <c r="E564" s="86"/>
+      <c r="E564" s="79"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
@@ -18801,7 +18801,7 @@
       <c r="B565" s="18"/>
       <c r="C565" s="18"/>
       <c r="D565" s="12"/>
-      <c r="E565" s="86"/>
+      <c r="E565" s="79"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
@@ -18818,7 +18818,7 @@
       <c r="B566" s="18"/>
       <c r="C566" s="18"/>
       <c r="D566" s="12"/>
-      <c r="E566" s="86"/>
+      <c r="E566" s="79"/>
       <c r="F566" s="12"/>
       <c r="G566" s="12"/>
       <c r="H566" s="3"/>
@@ -18835,7 +18835,7 @@
       <c r="B567" s="18"/>
       <c r="C567" s="18"/>
       <c r="D567" s="12"/>
-      <c r="E567" s="86"/>
+      <c r="E567" s="79"/>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
@@ -18852,7 +18852,7 @@
       <c r="B568" s="18"/>
       <c r="C568" s="18"/>
       <c r="D568" s="12"/>
-      <c r="E568" s="86"/>
+      <c r="E568" s="79"/>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
@@ -18869,7 +18869,7 @@
       <c r="B569" s="18"/>
       <c r="C569" s="18"/>
       <c r="D569" s="12"/>
-      <c r="E569" s="86"/>
+      <c r="E569" s="79"/>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
@@ -18886,7 +18886,7 @@
       <c r="B570" s="18"/>
       <c r="C570" s="18"/>
       <c r="D570" s="7"/>
-      <c r="E570" s="86"/>
+      <c r="E570" s="79"/>
       <c r="F570" s="12"/>
       <c r="G570" s="12"/>
       <c r="H570" s="3"/>
@@ -18903,7 +18903,7 @@
       <c r="B571" s="18"/>
       <c r="C571" s="18"/>
       <c r="D571" s="7"/>
-      <c r="E571" s="86"/>
+      <c r="E571" s="79"/>
       <c r="F571" s="12"/>
       <c r="G571" s="12"/>
       <c r="H571" s="3"/>
@@ -18920,7 +18920,7 @@
       <c r="B572" s="18"/>
       <c r="C572" s="20"/>
       <c r="D572" s="12"/>
-      <c r="E572" s="86"/>
+      <c r="E572" s="79"/>
       <c r="F572" s="12"/>
       <c r="G572" s="12"/>
       <c r="H572" s="7"/>
@@ -18937,7 +18937,7 @@
       <c r="B573" s="18"/>
       <c r="C573" s="20"/>
       <c r="D573" s="12"/>
-      <c r="E573" s="86"/>
+      <c r="E573" s="79"/>
       <c r="F573" s="12"/>
       <c r="G573" s="12"/>
       <c r="H573" s="7"/>
@@ -18954,7 +18954,7 @@
       <c r="B574" s="18"/>
       <c r="C574" s="18"/>
       <c r="D574" s="7"/>
-      <c r="E574" s="86"/>
+      <c r="E574" s="79"/>
       <c r="F574" s="12"/>
       <c r="G574" s="12"/>
       <c r="H574" s="3"/>
@@ -18971,7 +18971,7 @@
       <c r="B575" s="18"/>
       <c r="C575" s="18"/>
       <c r="D575" s="7"/>
-      <c r="E575" s="86"/>
+      <c r="E575" s="79"/>
       <c r="F575" s="12"/>
       <c r="G575" s="12"/>
       <c r="H575" s="3"/>
@@ -18988,7 +18988,7 @@
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
       <c r="D576" s="12"/>
-      <c r="E576" s="86"/>
+      <c r="E576" s="79"/>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
@@ -19005,7 +19005,7 @@
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
       <c r="D577" s="12"/>
-      <c r="E577" s="86"/>
+      <c r="E577" s="79"/>
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
       <c r="H577" s="7"/>
@@ -19022,7 +19022,7 @@
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
       <c r="D578" s="12"/>
-      <c r="E578" s="86"/>
+      <c r="E578" s="79"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
@@ -19039,7 +19039,7 @@
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
       <c r="D579" s="12"/>
-      <c r="E579" s="86"/>
+      <c r="E579" s="79"/>
       <c r="G579" s="7"/>
       <c r="H579" s="7"/>
       <c r="I579" s="34"/>
@@ -19055,7 +19055,7 @@
       <c r="B580" s="18"/>
       <c r="C580" s="18"/>
       <c r="D580" s="12"/>
-      <c r="E580" s="86"/>
+      <c r="E580" s="79"/>
       <c r="G580" s="7"/>
       <c r="H580" s="7"/>
       <c r="I580" s="34"/>
@@ -19071,7 +19071,7 @@
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
       <c r="D581" s="12"/>
-      <c r="E581" s="86"/>
+      <c r="E581" s="79"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
@@ -19088,7 +19088,7 @@
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
       <c r="D582" s="12"/>
-      <c r="E582" s="86"/>
+      <c r="E582" s="79"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
@@ -19105,7 +19105,7 @@
       <c r="B583" s="18"/>
       <c r="C583" s="18"/>
       <c r="D583" s="12"/>
-      <c r="E583" s="86"/>
+      <c r="E583" s="79"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
@@ -19122,7 +19122,7 @@
       <c r="B584" s="18"/>
       <c r="C584" s="18"/>
       <c r="D584" s="12"/>
-      <c r="E584" s="86"/>
+      <c r="E584" s="79"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
@@ -19139,7 +19139,7 @@
       <c r="B585" s="18"/>
       <c r="C585" s="19"/>
       <c r="D585" s="12"/>
-      <c r="E585" s="86"/>
+      <c r="E585" s="79"/>
       <c r="G585" s="7"/>
       <c r="H585" s="7"/>
       <c r="I585" s="34"/>
@@ -19155,7 +19155,7 @@
       <c r="B586" s="18"/>
       <c r="C586" s="19"/>
       <c r="D586" s="12"/>
-      <c r="E586" s="86"/>
+      <c r="E586" s="79"/>
       <c r="G586" s="7"/>
       <c r="H586" s="3"/>
       <c r="I586" s="34"/>
@@ -19171,7 +19171,7 @@
       <c r="B587" s="18"/>
       <c r="C587" s="19"/>
       <c r="D587" s="12"/>
-      <c r="E587" s="86"/>
+      <c r="E587" s="79"/>
       <c r="G587" s="7"/>
       <c r="H587" s="7"/>
       <c r="I587" s="34"/>
@@ -19187,7 +19187,7 @@
       <c r="B588" s="18"/>
       <c r="C588" s="18"/>
       <c r="D588" s="12"/>
-      <c r="E588" s="86"/>
+      <c r="E588" s="79"/>
       <c r="F588" s="12"/>
       <c r="G588" s="12"/>
       <c r="H588" s="3"/>
@@ -19204,7 +19204,7 @@
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
       <c r="D589" s="12"/>
-      <c r="E589" s="86"/>
+      <c r="E589" s="79"/>
       <c r="F589" s="12"/>
       <c r="G589" s="12"/>
       <c r="H589" s="7"/>
@@ -19221,7 +19221,7 @@
       <c r="B590" s="18"/>
       <c r="C590" s="18"/>
       <c r="D590" s="12"/>
-      <c r="E590" s="86"/>
+      <c r="E590" s="79"/>
       <c r="F590" s="12"/>
       <c r="G590" s="12"/>
       <c r="H590" s="3"/>
@@ -19238,7 +19238,7 @@
       <c r="B591" s="18"/>
       <c r="C591" s="18"/>
       <c r="D591" s="12"/>
-      <c r="E591" s="86"/>
+      <c r="E591" s="79"/>
       <c r="F591" s="12"/>
       <c r="G591" s="12"/>
       <c r="H591" s="3"/>
@@ -19255,7 +19255,7 @@
       <c r="B592" s="18"/>
       <c r="C592" s="19"/>
       <c r="D592" s="12"/>
-      <c r="E592" s="86"/>
+      <c r="E592" s="79"/>
       <c r="F592" s="13"/>
       <c r="G592" s="13"/>
       <c r="H592" s="3"/>
@@ -19272,7 +19272,7 @@
       <c r="B593" s="18"/>
       <c r="C593" s="19"/>
       <c r="D593" s="12"/>
-      <c r="E593" s="86"/>
+      <c r="E593" s="79"/>
       <c r="F593" s="13"/>
       <c r="G593" s="13"/>
       <c r="H593" s="3"/>
@@ -19289,7 +19289,7 @@
       <c r="B594" s="18"/>
       <c r="C594" s="19"/>
       <c r="D594" s="12"/>
-      <c r="E594" s="86"/>
+      <c r="E594" s="79"/>
       <c r="F594" s="13"/>
       <c r="G594" s="13"/>
       <c r="H594" s="7"/>
@@ -19306,7 +19306,7 @@
       <c r="B595" s="18"/>
       <c r="C595" s="18"/>
       <c r="D595" s="12"/>
-      <c r="E595" s="86"/>
+      <c r="E595" s="79"/>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
@@ -19323,7 +19323,7 @@
       <c r="B596" s="18"/>
       <c r="C596" s="20"/>
       <c r="D596" s="12"/>
-      <c r="E596" s="86"/>
+      <c r="E596" s="79"/>
       <c r="F596" s="12"/>
       <c r="G596" s="12"/>
       <c r="H596" s="7"/>
@@ -19340,7 +19340,7 @@
       <c r="B597" s="18"/>
       <c r="C597" s="20"/>
       <c r="D597" s="12"/>
-      <c r="E597" s="86"/>
+      <c r="E597" s="79"/>
       <c r="F597" s="12"/>
       <c r="G597" s="12"/>
       <c r="H597" s="7"/>
@@ -19357,7 +19357,7 @@
       <c r="B598" s="18"/>
       <c r="C598" s="20"/>
       <c r="D598" s="3"/>
-      <c r="E598" s="86"/>
+      <c r="E598" s="79"/>
       <c r="F598" s="12"/>
       <c r="G598" s="12"/>
       <c r="H598" s="7"/>
@@ -19374,7 +19374,7 @@
       <c r="B599" s="18"/>
       <c r="C599" s="20"/>
       <c r="D599" s="3"/>
-      <c r="E599" s="86"/>
+      <c r="E599" s="79"/>
       <c r="F599" s="12"/>
       <c r="G599" s="12"/>
       <c r="H599" s="3"/>
@@ -19391,7 +19391,7 @@
       <c r="B600" s="18"/>
       <c r="C600" s="18"/>
       <c r="D600" s="12"/>
-      <c r="E600" s="86"/>
+      <c r="E600" s="79"/>
       <c r="F600" s="12"/>
       <c r="G600" s="12"/>
       <c r="H600" s="3"/>
@@ -19408,7 +19408,7 @@
       <c r="B601" s="18"/>
       <c r="C601" s="18"/>
       <c r="D601" s="12"/>
-      <c r="E601" s="86"/>
+      <c r="E601" s="79"/>
       <c r="F601" s="12"/>
       <c r="G601" s="12"/>
       <c r="H601" s="3"/>
@@ -19425,7 +19425,7 @@
       <c r="B602" s="18"/>
       <c r="C602" s="21"/>
       <c r="D602" s="3"/>
-      <c r="E602" s="98"/>
+      <c r="E602" s="91"/>
       <c r="F602" s="12"/>
       <c r="G602" s="12"/>
       <c r="H602" s="7"/>
@@ -19442,7 +19442,7 @@
       <c r="B603" s="18"/>
       <c r="C603" s="21"/>
       <c r="D603" s="3"/>
-      <c r="E603" s="98"/>
+      <c r="E603" s="91"/>
       <c r="F603" s="12"/>
       <c r="G603" s="12"/>
       <c r="H603" s="3"/>
@@ -19459,7 +19459,7 @@
       <c r="B604" s="18"/>
       <c r="C604" s="18"/>
       <c r="D604" s="7"/>
-      <c r="E604" s="86"/>
+      <c r="E604" s="79"/>
       <c r="F604" s="12"/>
       <c r="G604" s="12"/>
       <c r="H604" s="3"/>
@@ -19476,7 +19476,7 @@
       <c r="B605" s="18"/>
       <c r="C605" s="18"/>
       <c r="D605" s="7"/>
-      <c r="E605" s="86"/>
+      <c r="E605" s="79"/>
       <c r="F605" s="12"/>
       <c r="G605" s="12"/>
       <c r="H605" s="3"/>
@@ -19493,7 +19493,7 @@
       <c r="B606" s="18"/>
       <c r="C606" s="18"/>
       <c r="D606" s="12"/>
-      <c r="E606" s="86"/>
+      <c r="E606" s="79"/>
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
@@ -19510,7 +19510,7 @@
       <c r="B607" s="18"/>
       <c r="C607" s="18"/>
       <c r="D607" s="12"/>
-      <c r="E607" s="86"/>
+      <c r="E607" s="79"/>
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
@@ -19527,7 +19527,7 @@
       <c r="B608" s="18"/>
       <c r="C608" s="21"/>
       <c r="D608" s="12"/>
-      <c r="E608" s="98"/>
+      <c r="E608" s="91"/>
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
       <c r="H608" s="7"/>
@@ -19544,7 +19544,7 @@
       <c r="B609" s="18"/>
       <c r="C609" s="21"/>
       <c r="D609" s="12"/>
-      <c r="E609" s="98"/>
+      <c r="E609" s="91"/>
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
       <c r="H609" s="7"/>
@@ -19561,7 +19561,7 @@
       <c r="B610" s="18"/>
       <c r="C610" s="18"/>
       <c r="D610" s="12"/>
-      <c r="E610" s="86"/>
+      <c r="E610" s="79"/>
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
       <c r="H610" s="3"/>
@@ -19578,7 +19578,7 @@
       <c r="B611" s="18"/>
       <c r="C611" s="18"/>
       <c r="D611" s="12"/>
-      <c r="E611" s="86"/>
+      <c r="E611" s="79"/>
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
       <c r="H611" s="3"/>
@@ -19595,7 +19595,7 @@
       <c r="B612" s="18"/>
       <c r="C612" s="18"/>
       <c r="D612" s="12"/>
-      <c r="E612" s="86"/>
+      <c r="E612" s="79"/>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
@@ -19612,7 +19612,7 @@
       <c r="B613" s="18"/>
       <c r="C613" s="18"/>
       <c r="D613" s="12"/>
-      <c r="E613" s="86"/>
+      <c r="E613" s="79"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
@@ -19629,7 +19629,7 @@
       <c r="B614" s="18"/>
       <c r="C614" s="18"/>
       <c r="D614" s="12"/>
-      <c r="E614" s="86"/>
+      <c r="E614" s="79"/>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
@@ -19646,7 +19646,7 @@
       <c r="B615" s="18"/>
       <c r="C615" s="18"/>
       <c r="D615" s="3"/>
-      <c r="E615" s="86"/>
+      <c r="E615" s="79"/>
       <c r="F615" s="12"/>
       <c r="G615" s="12"/>
       <c r="H615" s="3"/>
@@ -19663,7 +19663,7 @@
       <c r="B616" s="18"/>
       <c r="C616" s="18"/>
       <c r="D616" s="3"/>
-      <c r="E616" s="86"/>
+      <c r="E616" s="79"/>
       <c r="F616" s="12"/>
       <c r="G616" s="12"/>
       <c r="H616" s="7"/>
@@ -19680,7 +19680,7 @@
       <c r="B617" s="18"/>
       <c r="C617" s="18"/>
       <c r="D617" s="3"/>
-      <c r="E617" s="86"/>
+      <c r="E617" s="79"/>
       <c r="F617" s="12"/>
       <c r="G617" s="12"/>
       <c r="H617" s="3"/>
@@ -19697,7 +19697,7 @@
       <c r="B618" s="18"/>
       <c r="C618" s="18"/>
       <c r="D618" s="7"/>
-      <c r="E618" s="86"/>
+      <c r="E618" s="79"/>
       <c r="F618" s="12"/>
       <c r="G618" s="12"/>
       <c r="H618" s="3"/>
@@ -19714,7 +19714,7 @@
       <c r="B619" s="18"/>
       <c r="C619" s="18"/>
       <c r="D619" s="7"/>
-      <c r="E619" s="86"/>
+      <c r="E619" s="79"/>
       <c r="F619" s="12"/>
       <c r="G619" s="12"/>
       <c r="H619" s="3"/>
@@ -19731,7 +19731,7 @@
       <c r="B620" s="18"/>
       <c r="C620" s="18"/>
       <c r="D620" s="12"/>
-      <c r="E620" s="86"/>
+      <c r="E620" s="79"/>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
@@ -19748,7 +19748,7 @@
       <c r="B621" s="18"/>
       <c r="C621" s="18"/>
       <c r="D621" s="12"/>
-      <c r="E621" s="86"/>
+      <c r="E621" s="79"/>
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
@@ -19765,7 +19765,7 @@
       <c r="B622" s="18"/>
       <c r="C622" s="18"/>
       <c r="D622" s="13"/>
-      <c r="E622" s="86"/>
+      <c r="E622" s="79"/>
       <c r="F622" s="12"/>
       <c r="G622" s="12"/>
       <c r="H622" s="7"/>
@@ -19782,7 +19782,7 @@
       <c r="B623" s="18"/>
       <c r="C623" s="18"/>
       <c r="D623" s="12"/>
-      <c r="E623" s="86"/>
+      <c r="E623" s="79"/>
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
@@ -19799,7 +19799,7 @@
       <c r="B624" s="18"/>
       <c r="C624" s="18"/>
       <c r="D624" s="13"/>
-      <c r="E624" s="86"/>
+      <c r="E624" s="79"/>
       <c r="F624" s="12"/>
       <c r="G624" s="12"/>
       <c r="H624" s="7"/>
@@ -19816,7 +19816,7 @@
       <c r="B625" s="18"/>
       <c r="C625" s="21"/>
       <c r="D625" s="13"/>
-      <c r="E625" s="98"/>
+      <c r="E625" s="91"/>
       <c r="F625" s="12"/>
       <c r="G625" s="12"/>
       <c r="H625" s="7"/>
@@ -19833,7 +19833,7 @@
       <c r="B626" s="18"/>
       <c r="C626" s="18"/>
       <c r="D626" s="12"/>
-      <c r="E626" s="86"/>
+      <c r="E626" s="79"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
@@ -19850,7 +19850,7 @@
       <c r="B627" s="18"/>
       <c r="C627" s="18"/>
       <c r="D627" s="12"/>
-      <c r="E627" s="86"/>
+      <c r="E627" s="79"/>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
@@ -19867,7 +19867,7 @@
       <c r="B628" s="18"/>
       <c r="C628" s="18"/>
       <c r="D628" s="12"/>
-      <c r="E628" s="86"/>
+      <c r="E628" s="79"/>
       <c r="F628" s="12"/>
       <c r="G628" s="12"/>
       <c r="H628" s="3"/>
@@ -19884,7 +19884,7 @@
       <c r="B629" s="18"/>
       <c r="C629" s="18"/>
       <c r="D629" s="3"/>
-      <c r="E629" s="86"/>
+      <c r="E629" s="79"/>
       <c r="F629" s="12"/>
       <c r="G629" s="12"/>
       <c r="H629" s="3"/>
@@ -19901,7 +19901,7 @@
       <c r="B630" s="18"/>
       <c r="C630" s="18"/>
       <c r="D630" s="3"/>
-      <c r="E630" s="86"/>
+      <c r="E630" s="79"/>
       <c r="F630" s="12"/>
       <c r="G630" s="12"/>
       <c r="H630" s="3"/>
@@ -19918,7 +19918,7 @@
       <c r="B631" s="18"/>
       <c r="C631" s="19"/>
       <c r="D631" s="13"/>
-      <c r="E631" s="86"/>
+      <c r="E631" s="79"/>
       <c r="F631" s="12"/>
       <c r="G631" s="12"/>
       <c r="H631" s="15"/>
@@ -19935,7 +19935,7 @@
       <c r="B632" s="18"/>
       <c r="C632" s="19"/>
       <c r="D632" s="13"/>
-      <c r="E632" s="86"/>
+      <c r="E632" s="79"/>
       <c r="F632" s="12"/>
       <c r="G632" s="12"/>
       <c r="H632" s="15"/>
@@ -19952,7 +19952,7 @@
       <c r="B633" s="18"/>
       <c r="C633" s="19"/>
       <c r="D633" s="13"/>
-      <c r="E633" s="86"/>
+      <c r="E633" s="79"/>
       <c r="F633" s="12"/>
       <c r="G633" s="12"/>
       <c r="H633" s="15"/>
@@ -19969,7 +19969,7 @@
       <c r="B634" s="18"/>
       <c r="C634" s="19"/>
       <c r="D634" s="13"/>
-      <c r="E634" s="86"/>
+      <c r="E634" s="79"/>
       <c r="F634" s="12"/>
       <c r="G634" s="12"/>
       <c r="H634" s="15"/>
@@ -19986,7 +19986,7 @@
       <c r="B635" s="18"/>
       <c r="C635" s="19"/>
       <c r="D635" s="13"/>
-      <c r="E635" s="86"/>
+      <c r="E635" s="79"/>
       <c r="F635" s="12"/>
       <c r="G635" s="12"/>
       <c r="H635" s="15"/>
@@ -20003,7 +20003,7 @@
       <c r="B636" s="18"/>
       <c r="C636" s="19"/>
       <c r="D636" s="13"/>
-      <c r="E636" s="86"/>
+      <c r="E636" s="79"/>
       <c r="F636" s="12"/>
       <c r="G636" s="12"/>
       <c r="H636" s="15"/>
@@ -20020,7 +20020,7 @@
       <c r="B637" s="18"/>
       <c r="C637" s="19"/>
       <c r="D637" s="13"/>
-      <c r="E637" s="86"/>
+      <c r="E637" s="79"/>
       <c r="F637" s="12"/>
       <c r="G637" s="12"/>
       <c r="H637" s="15"/>
@@ -20037,7 +20037,7 @@
       <c r="B638" s="18"/>
       <c r="C638" s="19"/>
       <c r="D638" s="13"/>
-      <c r="E638" s="86"/>
+      <c r="E638" s="79"/>
       <c r="F638" s="12"/>
       <c r="G638" s="12"/>
       <c r="H638" s="15"/>
@@ -20054,7 +20054,7 @@
       <c r="B639" s="18"/>
       <c r="C639" s="19"/>
       <c r="D639" s="13"/>
-      <c r="E639" s="86"/>
+      <c r="E639" s="79"/>
       <c r="F639" s="12"/>
       <c r="G639" s="12"/>
       <c r="H639" s="15"/>
@@ -20071,7 +20071,7 @@
       <c r="B640" s="18"/>
       <c r="C640" s="19"/>
       <c r="D640" s="13"/>
-      <c r="E640" s="86"/>
+      <c r="E640" s="79"/>
       <c r="F640" s="12"/>
       <c r="G640" s="12"/>
       <c r="H640" s="15"/>
@@ -20088,7 +20088,7 @@
       <c r="B641" s="18"/>
       <c r="C641" s="19"/>
       <c r="D641" s="13"/>
-      <c r="E641" s="86"/>
+      <c r="E641" s="79"/>
       <c r="F641" s="12"/>
       <c r="G641" s="12"/>
       <c r="H641" s="15"/>
@@ -20105,7 +20105,7 @@
       <c r="B642" s="18"/>
       <c r="C642" s="19"/>
       <c r="D642" s="13"/>
-      <c r="E642" s="86"/>
+      <c r="E642" s="79"/>
       <c r="F642" s="12"/>
       <c r="G642" s="12"/>
       <c r="H642" s="15"/>
@@ -20122,7 +20122,7 @@
       <c r="B643" s="18"/>
       <c r="C643" s="19"/>
       <c r="D643" s="13"/>
-      <c r="E643" s="86"/>
+      <c r="E643" s="79"/>
       <c r="F643" s="12"/>
       <c r="G643" s="12"/>
       <c r="H643" s="15"/>
@@ -20139,7 +20139,7 @@
       <c r="B644" s="18"/>
       <c r="C644" s="19"/>
       <c r="D644" s="13"/>
-      <c r="E644" s="86"/>
+      <c r="E644" s="79"/>
       <c r="F644" s="12"/>
       <c r="G644" s="12"/>
       <c r="H644" s="15"/>
@@ -20156,7 +20156,7 @@
       <c r="B645" s="18"/>
       <c r="C645" s="19"/>
       <c r="D645" s="13"/>
-      <c r="E645" s="86"/>
+      <c r="E645" s="79"/>
       <c r="F645" s="12"/>
       <c r="G645" s="12"/>
       <c r="H645" s="15"/>
@@ -20173,7 +20173,7 @@
       <c r="B646" s="18"/>
       <c r="C646" s="19"/>
       <c r="D646" s="13"/>
-      <c r="E646" s="86"/>
+      <c r="E646" s="79"/>
       <c r="F646" s="12"/>
       <c r="G646" s="12"/>
       <c r="H646" s="15"/>
@@ -20190,7 +20190,7 @@
       <c r="B647" s="18"/>
       <c r="C647" s="19"/>
       <c r="D647" s="13"/>
-      <c r="E647" s="86"/>
+      <c r="E647" s="79"/>
       <c r="F647" s="12"/>
       <c r="G647" s="12"/>
       <c r="H647" s="15"/>
@@ -20207,7 +20207,7 @@
       <c r="B648" s="18"/>
       <c r="C648" s="19"/>
       <c r="D648" s="13"/>
-      <c r="E648" s="86"/>
+      <c r="E648" s="79"/>
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
       <c r="H648" s="15"/>
@@ -20224,7 +20224,7 @@
       <c r="B649" s="18"/>
       <c r="C649" s="19"/>
       <c r="D649" s="13"/>
-      <c r="E649" s="86"/>
+      <c r="E649" s="79"/>
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
       <c r="H649" s="15"/>
@@ -20241,7 +20241,7 @@
       <c r="B650" s="18"/>
       <c r="C650" s="19"/>
       <c r="D650" s="13"/>
-      <c r="E650" s="86"/>
+      <c r="E650" s="79"/>
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
       <c r="H650" s="15"/>
@@ -20258,7 +20258,7 @@
       <c r="B651" s="18"/>
       <c r="C651" s="19"/>
       <c r="D651" s="13"/>
-      <c r="E651" s="86"/>
+      <c r="E651" s="79"/>
       <c r="F651" s="12"/>
       <c r="G651" s="12"/>
       <c r="H651" s="15"/>
@@ -20275,7 +20275,7 @@
       <c r="B652" s="18"/>
       <c r="C652" s="19"/>
       <c r="D652" s="13"/>
-      <c r="E652" s="86"/>
+      <c r="E652" s="79"/>
       <c r="F652" s="12"/>
       <c r="G652" s="12"/>
       <c r="H652" s="15"/>
@@ -20292,7 +20292,7 @@
       <c r="B653" s="18"/>
       <c r="C653" s="19"/>
       <c r="D653" s="13"/>
-      <c r="E653" s="86"/>
+      <c r="E653" s="79"/>
       <c r="F653" s="12"/>
       <c r="G653" s="12"/>
       <c r="H653" s="15"/>
@@ -20309,7 +20309,7 @@
       <c r="B654" s="18"/>
       <c r="C654" s="19"/>
       <c r="D654" s="13"/>
-      <c r="E654" s="86"/>
+      <c r="E654" s="79"/>
       <c r="F654" s="12"/>
       <c r="G654" s="12"/>
       <c r="H654" s="15"/>
@@ -20326,7 +20326,7 @@
       <c r="B655" s="18"/>
       <c r="C655" s="19"/>
       <c r="D655" s="13"/>
-      <c r="E655" s="86"/>
+      <c r="E655" s="79"/>
       <c r="F655" s="12"/>
       <c r="G655" s="12"/>
       <c r="H655" s="15"/>
@@ -20343,7 +20343,7 @@
       <c r="B656" s="18"/>
       <c r="C656" s="19"/>
       <c r="D656" s="13"/>
-      <c r="E656" s="86"/>
+      <c r="E656" s="79"/>
       <c r="F656" s="12"/>
       <c r="G656" s="12"/>
       <c r="H656" s="15"/>
@@ -20360,7 +20360,7 @@
       <c r="B657" s="18"/>
       <c r="C657" s="19"/>
       <c r="D657" s="13"/>
-      <c r="E657" s="86"/>
+      <c r="E657" s="79"/>
       <c r="F657" s="12"/>
       <c r="G657" s="12"/>
       <c r="H657" s="15"/>
@@ -20377,7 +20377,7 @@
       <c r="B658" s="18"/>
       <c r="C658" s="19"/>
       <c r="D658" s="13"/>
-      <c r="E658" s="86"/>
+      <c r="E658" s="79"/>
       <c r="F658" s="12"/>
       <c r="G658" s="12"/>
       <c r="H658" s="15"/>
@@ -20394,7 +20394,7 @@
       <c r="B659" s="18"/>
       <c r="C659" s="19"/>
       <c r="D659" s="13"/>
-      <c r="E659" s="86"/>
+      <c r="E659" s="79"/>
       <c r="F659" s="12"/>
       <c r="G659" s="12"/>
       <c r="H659" s="15"/>
@@ -20411,7 +20411,7 @@
       <c r="B660" s="18"/>
       <c r="C660" s="19"/>
       <c r="D660" s="13"/>
-      <c r="E660" s="86"/>
+      <c r="E660" s="79"/>
       <c r="F660" s="12"/>
       <c r="G660" s="12"/>
       <c r="H660" s="15"/>
@@ -20428,7 +20428,7 @@
       <c r="B661" s="18"/>
       <c r="C661" s="19"/>
       <c r="D661" s="13"/>
-      <c r="E661" s="86"/>
+      <c r="E661" s="79"/>
       <c r="F661" s="12"/>
       <c r="G661" s="12"/>
       <c r="H661" s="15"/>
@@ -20445,7 +20445,7 @@
       <c r="B662" s="18"/>
       <c r="C662" s="19"/>
       <c r="D662" s="13"/>
-      <c r="E662" s="86"/>
+      <c r="E662" s="79"/>
       <c r="F662" s="12"/>
       <c r="G662" s="12"/>
       <c r="H662" s="15"/>
@@ -20462,7 +20462,7 @@
       <c r="B663" s="18"/>
       <c r="C663" s="19"/>
       <c r="D663" s="13"/>
-      <c r="E663" s="86"/>
+      <c r="E663" s="79"/>
       <c r="F663" s="12"/>
       <c r="G663" s="12"/>
       <c r="H663" s="15"/>
@@ -20513,7 +20513,7 @@
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20993,8 +20993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150DB201-0B82-4784-B768-50570AC073FE}">
   <dimension ref="A3:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21013,320 +21013,320 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="J3" s="93" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="J3" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="87" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="85">
         <v>189.77732793522264</v>
       </c>
-      <c r="C5" s="92">
+      <c r="C5" s="85">
         <v>164.4736842105263</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="85">
         <v>75.910931174089058</v>
       </c>
-      <c r="E5" s="92">
+      <c r="E5" s="85">
         <v>1422.0141700404859</v>
       </c>
-      <c r="F5" s="92">
+      <c r="F5" s="85">
         <v>1852.1761133603238</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="92">
+      <c r="K5" s="85">
         <v>702.17611336032382</v>
       </c>
-      <c r="L5" s="92">
+      <c r="L5" s="85">
         <v>1150</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="85">
         <v>1852.1761133603238</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85">
         <v>900</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="85">
         <v>900</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="85">
         <v>534.53947368421041</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92">
+      <c r="L6" s="85"/>
+      <c r="M6" s="85">
         <v>534.53947368421041</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="85">
         <v>189.77732793522264</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="85">
         <v>164.4736842105263</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="85">
         <v>75.910931174089058</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="85">
         <v>272.01417004048579</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="85">
         <v>702.17611336032382</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="92">
+      <c r="K7" s="85">
         <v>290.9919028340081</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85">
         <v>290.9919028340081</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85">
         <v>250</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="85">
         <v>250</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="92">
+      <c r="K8" s="85">
         <v>256.1993927125506</v>
       </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92">
+      <c r="L8" s="85"/>
+      <c r="M8" s="85">
         <v>256.1993927125506</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="85">
         <v>344.7621457489879</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="85">
         <v>91.72570850202429</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="85">
         <v>215.08097165991904</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="85">
         <v>430.16194331983803</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="85">
         <v>1081.7307692307693</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="92">
+      <c r="K9" s="85">
         <v>1783.9068825910929</v>
       </c>
-      <c r="L9" s="92">
+      <c r="L9" s="85">
         <v>1150</v>
       </c>
-      <c r="M9" s="92">
+      <c r="M9" s="85">
         <v>2933.9068825910927</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="85">
         <v>151.82186234817814</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="85">
         <v>16.869095816464238</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="85">
         <v>50.607287449392715</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="85">
         <v>101.21457489878543</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="85">
         <v>320.51282051282055</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="85">
         <v>132.84412955465589</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="85">
         <v>14.760458839406208</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="85">
         <v>44.281376518218629</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="85">
         <v>88.562753036437257</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="85">
         <v>280.44871794871796</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="85">
         <v>34.792510121457489</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="85">
         <v>34.792510121457489</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85">
         <v>139.17004048582996</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="85">
         <v>208.75506072874492</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="85">
         <v>25.303643724696357</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="85">
         <v>25.303643724696357</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92">
+      <c r="D13" s="85"/>
+      <c r="E13" s="85">
         <v>101.21457489878543</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="85">
         <v>151.82186234817814</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85">
         <v>63.259109311740893</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92">
+      <c r="E14" s="85"/>
+      <c r="F14" s="85">
         <v>63.259109311740893</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92">
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85">
         <v>56.9331983805668</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85">
         <v>56.9331983805668</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="85">
         <v>534.53947368421052</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="85">
         <v>256.1993927125506</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="85">
         <v>290.9919028340081</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="85">
         <v>1852.1761133603241</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="85">
         <v>2933.9068825910927</v>
       </c>
     </row>
